--- a/customers.xlsx
+++ b/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="502">
   <si>
     <t>email_id</t>
   </si>
@@ -452,9 +452,6 @@
   </si>
   <si>
     <t>opening_balance</t>
-  </si>
-  <si>
-    <t>billing_name</t>
   </si>
   <si>
     <t>ledger_name</t>
@@ -1870,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A2:N222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J226" sqref="J226"/>
+    <sheetView tabSelected="1" topLeftCell="C193" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1889,7 +1886,7 @@
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="211.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1921,16 +1918,17 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>"','billing_name"</f>
+        <v>','billing_name</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>142</v>
@@ -1945,34 +1943,34 @@
         <v>144</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>145</v>
       </c>
       <c r="N3" t="str">
-        <f>CONCATENATE($A$2,$A$3,$B$2,A4,$B$3,$B$2,B4,$C$2,$C$3,$D$2,C4,$E$2,$D$3,$B$2,D4,$C$2,$E$3,$B$2,E4,E4,$C$2,$F$3,$B$2,F4,$C$2,$H$3,$D$2,H4,$E$2,$I$3,$B$2,I4,$C$2,$K$3,$D$2,$K$4,$F$2)</f>
-        <v>['ledger_name'=&gt;'Apu Kundubilling_name'=&gt;'Apu Kundu','ledger_group_id'=&gt;16,'address1'=&gt;'Berhampore','mobile1'=&gt;'94747502529474750252','mobile2'=&gt;'03482267425','state_id'=&gt;20,'pin'=&gt;'740230','transaction_type_id'=&gt;1],</v>
+        <f>CONCATENATE($A$2,$A$3,$B$2,A4,$B$3,$B$2,B4,$C$2,$C$3,$D$2,C4,$E$2,$D$3,$B$2,D4,$C$2,$E$3,$B$2,E4,$C$2,$F$3,$B$2,F4,$C$2,$H$3,$D$2,H4,$E$2,$I$3,$B$2,I4,$C$2,$K$3,$D$2,$K$4,$E$2,$L$3,$D$2,L4,",'customer_category_id'=&gt;2",$F$2)</f>
+        <v>['ledger_name'=&gt;'Apu Kundu','billing_name'=&gt;'Apu Kundu','ledger_group_id'=&gt;16,'address1'=&gt;'Berhampore','mobile1'=&gt;'9474750252','mobile2'=&gt;'03482267425','state_id'=&gt;20,'pin'=&gt;'740230','transaction_type_id'=&gt;1,'opening_balance'=&gt;100,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1981,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H4" s="2">
         <v>20</v>
@@ -1999,31 +1997,31 @@
         <v>100</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N67" si="0">CONCATENATE($A$2,$A$3,$B$2,A5,$B$3,$B$2,B5,$C$2,$C$3,$D$2,C5,$E$2,$D$3,$B$2,D5,$C$2,$E$3,$B$2,E5,E5,$C$2,$F$3,$B$2,F5,$C$2,$H$3,$D$2,H5,$E$2,$I$3,$B$2,I5,$C$2,$K$3,$D$2,$K$4,$F$2)</f>
-        <v>['ledger_name'=&gt;'Indra Sen Guptabilling_name'=&gt;'Indra Sen Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Garia','mobile1'=&gt;'78391382807839138280','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <f t="shared" ref="N4:N67" si="0">CONCATENATE($A$2,$A$3,$B$2,A5,$B$3,$B$2,B5,$C$2,$C$3,$D$2,C5,$E$2,$D$3,$B$2,D5,$C$2,$E$3,$B$2,E5,$C$2,$F$3,$B$2,F5,$C$2,$H$3,$D$2,H5,$E$2,$I$3,$B$2,I5,$C$2,$K$3,$D$2,$K$4,$E$2,$L$3,$D$2,L5,",'customer_category_id'=&gt;2",$F$2)</f>
+        <v>['ledger_name'=&gt;'Indra Sen Gupta','billing_name'=&gt;'Indra Sen Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Garia','mobile1'=&gt;'7839138280','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H5" s="2">
         <v>20</v>
@@ -2039,21 +2037,21 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Amar Kamgsa Banikbilling_name'=&gt;'Amar Kamgsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Duttapukur','mobile1'=&gt;'89615120728961512072','mobile2'=&gt;'9088372863','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Amar Kamgsa Banik','billing_name'=&gt;'Amar Kamgsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Duttapukur','mobile1'=&gt;'8961512072','mobile2'=&gt;'9088372863','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;199514,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -2062,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H6" s="2">
         <v>20</v>
@@ -2078,30 +2076,30 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Sanath Maitybilling_name'=&gt;'Sanath Maity','ledger_group_id'=&gt;16,'address1'=&gt;'South','mobile1'=&gt;'99999999999999999999','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'4','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sanath Maity','billing_name'=&gt;'Sanath Maity','ledger_group_id'=&gt;16,'address1'=&gt;'South','mobile1'=&gt;'9999999999','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'4','transaction_type_id'=&gt;1,'opening_balance'=&gt;140682,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H7" s="2">
         <v>20</v>
@@ -2117,30 +2115,30 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Nandan Storesbilling_name'=&gt;'Nandan Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'99339595699933959569','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Nandan Stores','billing_name'=&gt;'Nandan Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'9933959569','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H8" s="2">
         <v>20</v>
@@ -2156,30 +2154,30 @@
       </c>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Mahesh Shawbilling_name'=&gt;'Mahesh Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Telinipara','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Mahesh Shaw','billing_name'=&gt;'Mahesh Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Telinipara','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;13407,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H9" s="2">
         <v>20</v>
@@ -2195,30 +2193,30 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Bimal Janabilling_name'=&gt;'Bimal Jana','ledger_group_id'=&gt;16,'address1'=&gt;'Bhimeswari Bajar','mobile1'=&gt;'99654456989965445698','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721458','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bimal Jana','billing_name'=&gt;'Bimal Jana','ledger_group_id'=&gt;16,'address1'=&gt;'Bhimeswari Bajar','mobile1'=&gt;'9965445698','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721458','transaction_type_id'=&gt;1,'opening_balance'=&gt;1021,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H10" s="2">
         <v>20</v>
@@ -2234,30 +2232,30 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Vinay Shawbilling_name'=&gt;'Vinay Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Ramesh Dutta Street','mobile1'=&gt;'99032436399903243639','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'0','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Vinay Shaw','billing_name'=&gt;'Vinay Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Ramesh Dutta Street','mobile1'=&gt;'9903243639','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'0','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H11" s="2">
         <v>20</v>
@@ -2273,30 +2271,30 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Subho Dokanbilling_name'=&gt;'Subho Dokan','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Subho Dokan','billing_name'=&gt;'Subho Dokan','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H12" s="2">
         <v>20</v>
@@ -2312,30 +2310,30 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Cashbilling_name'=&gt;'Cash','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Cash','billing_name'=&gt;'Cash','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H13" s="2">
         <v>20</v>
@@ -2351,30 +2349,30 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'P. L. Guptabilling_name'=&gt;'P. L. Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'91236665569123666556','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721301','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'P. L. Gupta','billing_name'=&gt;'P. L. Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'9123666556','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721301','transaction_type_id'=&gt;1,'opening_balance'=&gt;202655,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H14" s="2">
         <v>20</v>
@@ -2390,30 +2388,30 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Bablu Sahubilling_name'=&gt;'Bablu Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Ramesh Dutta Street','mobile1'=&gt;'98319566849831956684','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'0','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bablu Sahu','billing_name'=&gt;'Bablu Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Ramesh Dutta Street','mobile1'=&gt;'9831956684','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'0','transaction_type_id'=&gt;1,'opening_balance'=&gt;18926,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H15" s="2">
         <v>20</v>
@@ -2429,30 +2427,30 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Rajenbilling_name'=&gt;'Rajen','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rajen','billing_name'=&gt;'Rajen','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H16" s="2">
         <v>20</v>
@@ -2468,30 +2466,30 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Rama Shankar Paulbilling_name'=&gt;'Rama Shankar Paul','ledger_group_id'=&gt;16,'address1'=&gt;'Gangarampur','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rama Shankar Paul','billing_name'=&gt;'Rama Shankar Paul','ledger_group_id'=&gt;16,'address1'=&gt;'Gangarampur','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H17" s="2">
         <v>20</v>
@@ -2507,30 +2505,30 @@
       </c>
       <c r="N17" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Monu Janabilling_name'=&gt;'Monu Jana','ledger_group_id'=&gt;16,'address1'=&gt;'Jaleswar','mobile1'=&gt;'90400049409040004940','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'711201','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Monu Jana','billing_name'=&gt;'Monu Jana','ledger_group_id'=&gt;16,'address1'=&gt;'Jaleswar','mobile1'=&gt;'9040004940','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'711201','transaction_type_id'=&gt;1,'opening_balance'=&gt;274373,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H18" s="2">
         <v>20</v>
@@ -2546,30 +2544,30 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Tukan Trainbilling_name'=&gt;'Tukan Train','ledger_group_id'=&gt;16,'address1'=&gt;'Ashoknagar','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'0','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tukan Train','billing_name'=&gt;'Tukan Train','ledger_group_id'=&gt;16,'address1'=&gt;'Ashoknagar','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'0','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H19" s="2">
         <v>20</v>
@@ -2585,30 +2583,30 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Sandip (Basu Da)billing_name'=&gt;'Sandip (Basu Da)','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sandip (Basu Da)','billing_name'=&gt;'Sandip (Basu Da)','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;2250,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H20" s="2">
         <v>20</v>
@@ -2624,30 +2622,30 @@
       </c>
       <c r="N20" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Susanto Banikbilling_name'=&gt;'Susanto Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Bansdroni','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Susanto Banik','billing_name'=&gt;'Susanto Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Bansdroni','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H21" s="2">
         <v>20</v>
@@ -2663,30 +2661,30 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Dipak Gupta billing_name'=&gt;'Dipak Gupta ','ledger_group_id'=&gt;16,'address1'=&gt;'Behala ','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Dipak Gupta ','billing_name'=&gt;'Dipak Gupta ','ledger_group_id'=&gt;16,'address1'=&gt;'Behala ','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;59291,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H22" s="2">
         <v>20</v>
@@ -2702,30 +2700,30 @@
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Surendranath Jainbilling_name'=&gt;'Surendranath Jain','ledger_group_id'=&gt;16,'address1'=&gt;'74No. Bartan','mobile1'=&gt;'90514436909051443690','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Surendranath Jain','billing_name'=&gt;'Surendranath Jain','ledger_group_id'=&gt;16,'address1'=&gt;'74No. Bartan','mobile1'=&gt;'9051443690','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H23" s="2">
         <v>20</v>
@@ -2741,30 +2739,30 @@
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Khokon Sahabilling_name'=&gt;'Khokon Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Nabadwip','mobile1'=&gt;'91533801999153380199','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'741302','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Khokon Saha','billing_name'=&gt;'Khokon Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Nabadwip','mobile1'=&gt;'9153380199','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'741302','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H24" s="2">
         <v>20</v>
@@ -2780,30 +2778,30 @@
       </c>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Satya Dabilling_name'=&gt;'Satya Da','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Satya Da','billing_name'=&gt;'Satya Da','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H25" s="2">
         <v>20</v>
@@ -2819,30 +2817,30 @@
       </c>
       <c r="N25" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Naba Posaribilling_name'=&gt;'Naba Posari','ledger_group_id'=&gt;16,'address1'=&gt;'Burrabazar','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Naba Posari','billing_name'=&gt;'Naba Posari','ledger_group_id'=&gt;16,'address1'=&gt;'Burrabazar','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H26" s="2">
         <v>20</v>
@@ -2858,30 +2856,30 @@
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Amal Kathalbilling_name'=&gt;'Amal Kathal','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Amal Kathal','billing_name'=&gt;'Amal Kathal','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H27" s="2">
         <v>20</v>
@@ -2897,21 +2895,21 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Prahallad Maitybilling_name'=&gt;'Prahallad Maity','ledger_group_id'=&gt;16,'address1'=&gt;'Bolaiponda','mobile1'=&gt;'98003177949800317794','mobile2'=&gt;'8918245727','state_id'=&gt;20,'pin'=&gt;'721212','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Prahallad Maity','billing_name'=&gt;'Prahallad Maity','ledger_group_id'=&gt;16,'address1'=&gt;'Bolaiponda','mobile1'=&gt;'9800317794','mobile2'=&gt;'8918245727','state_id'=&gt;20,'pin'=&gt;'721212','transaction_type_id'=&gt;1,'opening_balance'=&gt;261561,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -2920,7 +2918,7 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H28" s="2">
         <v>20</v>
@@ -2936,30 +2934,30 @@
       </c>
       <c r="N28" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Abhijitbilling_name'=&gt;'Abhijit','ledger_group_id'=&gt;16,'address1'=&gt;'Beleghata','mobile1'=&gt;'99','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Abhijit','billing_name'=&gt;'Abhijit','ledger_group_id'=&gt;16,'address1'=&gt;'Beleghata','mobile1'=&gt;'9','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;5000,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H29" s="2">
         <v>20</v>
@@ -2975,30 +2973,30 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Malati Storesbilling_name'=&gt;'Malati Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Bhadreswar','mobile1'=&gt;'89613595488961359548','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Malati Stores','billing_name'=&gt;'Malati Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Bhadreswar','mobile1'=&gt;'8961359548','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H30" s="2">
         <v>20</v>
@@ -3014,30 +3012,30 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Sree Ram Basanalayabilling_name'=&gt;'Sree Ram Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Bandel','mobile1'=&gt;'80131330268013133026','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'712123','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sree Ram Basanalaya','billing_name'=&gt;'Sree Ram Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Bandel','mobile1'=&gt;'8013133026','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'712123','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H31" s="2">
         <v>20</v>
@@ -3053,30 +3051,30 @@
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Nimai Karmakarbilling_name'=&gt;'Nimai Karmakar','ledger_group_id'=&gt;16,'address1'=&gt;'Kashinagar','mobile1'=&gt;'99','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Nimai Karmakar','billing_name'=&gt;'Nimai Karmakar','ledger_group_id'=&gt;16,'address1'=&gt;'Kashinagar','mobile1'=&gt;'9','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H32" s="2">
         <v>20</v>
@@ -3092,30 +3090,30 @@
       </c>
       <c r="N32" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Samirbilling_name'=&gt;'Samir','ledger_group_id'=&gt;16,'address1'=&gt;'Naihati','mobile1'=&gt;'88','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Samir','billing_name'=&gt;'Samir','ledger_group_id'=&gt;16,'address1'=&gt;'Naihati','mobile1'=&gt;'8','mobile2'=&gt;' ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H33" s="2">
         <v>20</v>
@@ -3131,21 +3129,21 @@
       </c>
       <c r="N33" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'New Kedarbilling_name'=&gt;'New Kedar','ledger_group_id'=&gt;16,'address1'=&gt;'Bandel','mobile1'=&gt;'87774828688777482868','mobile2'=&gt;'8479071858','state_id'=&gt;20,'pin'=&gt;'712123','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'New Kedar','billing_name'=&gt;'New Kedar','ledger_group_id'=&gt;16,'address1'=&gt;'Bandel','mobile1'=&gt;'8777482868','mobile2'=&gt;'8479071858','state_id'=&gt;20,'pin'=&gt;'712123','transaction_type_id'=&gt;1,'opening_balance'=&gt;95673,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -3154,7 +3152,7 @@
         <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H34" s="2">
         <v>20</v>
@@ -3170,30 +3168,30 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Mithu Sahubilling_name'=&gt;'Mithu Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Paniparul','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Mithu Sahu','billing_name'=&gt;'Mithu Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Paniparul','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;56924,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C35">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H35" s="2">
         <v>20</v>
@@ -3209,30 +3207,30 @@
       </c>
       <c r="N35" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Hemo Metalbilling_name'=&gt;'Hemo Metal','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Hemo Metal','billing_name'=&gt;'Hemo Metal','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H36" s="2">
         <v>20</v>
@@ -3248,30 +3246,30 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Shyamal Dasbilling_name'=&gt;'Shyamal Das','ledger_group_id'=&gt;16,'address1'=&gt;'Burrabazar','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Shyamal Das','billing_name'=&gt;'Shyamal Das','ledger_group_id'=&gt;16,'address1'=&gt;'Burrabazar','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;2728,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H37" s="2">
         <v>20</v>
@@ -3287,30 +3285,30 @@
       </c>
       <c r="N37" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Kalu (Baidyabati Basanalaya)billing_name'=&gt;'Kalu (Baidyabati Basanalaya)','ledger_group_id'=&gt;16,'address1'=&gt;'Baidyabati','mobile1'=&gt;'93312052759331205275','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Kalu (Baidyabati Basanalaya)','billing_name'=&gt;'Kalu (Baidyabati Basanalaya)','ledger_group_id'=&gt;16,'address1'=&gt;'Baidyabati','mobile1'=&gt;'9331205275','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E38" t="s">
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H38" s="2">
         <v>20</v>
@@ -3326,30 +3324,30 @@
       </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Bapi Nandanbilling_name'=&gt;'Bapi Nandan','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bapi Nandan','billing_name'=&gt;'Bapi Nandan','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H39" s="2">
         <v>20</v>
@@ -3365,21 +3363,21 @@
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Sutapa Sahabilling_name'=&gt;'Sutapa Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Udaipur , Tripura','mobile1'=&gt;'98630809049863080904','mobile2'=&gt;'9436101378','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sutapa Saha','billing_name'=&gt;'Sutapa Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Udaipur , Tripura','mobile1'=&gt;'9863080904','mobile2'=&gt;'9436101378','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
@@ -3388,7 +3386,7 @@
         <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H40" s="2">
         <v>20</v>
@@ -3404,30 +3402,30 @@
       </c>
       <c r="N40" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Saradeswari Dasakarma Bhanderbilling_name'=&gt;'Saradeswari Dasakarma Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Gariahat','mobile1'=&gt;'98983365489898336548','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700019','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Saradeswari Dasakarma Bhander','billing_name'=&gt;'Saradeswari Dasakarma Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Gariahat','mobile1'=&gt;'9898336548','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700019','transaction_type_id'=&gt;1,'opening_balance'=&gt;71022,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E41" t="s">
         <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H41" s="2">
         <v>20</v>
@@ -3443,30 +3441,30 @@
       </c>
       <c r="N41" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Tarak Deybilling_name'=&gt;'Tarak Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Khanakul','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tarak Dey','billing_name'=&gt;'Tarak Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Khanakul','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;38565,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42">
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H42" s="2">
         <v>20</v>
@@ -3482,30 +3480,30 @@
       </c>
       <c r="N42" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Joy Maa Kali Basanalayabilling_name'=&gt;'Joy Maa Kali Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'C K Road','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Joy Maa Kali Basanalaya','billing_name'=&gt;'Joy Maa Kali Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'C K Road','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;2989,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H43" s="2">
         <v>20</v>
@@ -3521,30 +3519,30 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'K. Shawbilling_name'=&gt;'K. Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Bhadreswar','mobile1'=&gt;'99887778899988777889','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'712124','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'K. Shaw','billing_name'=&gt;'K. Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Bhadreswar','mobile1'=&gt;'9988777889','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'712124','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E44" t="s">
         <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H44" s="2">
         <v>20</v>
@@ -3560,30 +3558,30 @@
       </c>
       <c r="N44" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Babu Varietybilling_name'=&gt;'Babu Variety','ledger_group_id'=&gt;16,'address1'=&gt;'Ghatakpukur','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Babu Variety','billing_name'=&gt;'Babu Variety','ledger_group_id'=&gt;16,'address1'=&gt;'Ghatakpukur','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;10000,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H45" s="2">
         <v>20</v>
@@ -3599,30 +3597,30 @@
       </c>
       <c r="N45" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Lokenath Sankha Bhanderbilling_name'=&gt;'Lokenath Sankha Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'98303848519830384851','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Lokenath Sankha Bhander','billing_name'=&gt;'Lokenath Sankha Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'9830384851','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;36370,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H46" s="2">
         <v>20</v>
@@ -3638,30 +3636,30 @@
       </c>
       <c r="N46" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Bimal Mondolbilling_name'=&gt;'Bimal Mondol','ledger_group_id'=&gt;16,'address1'=&gt;'Nabadwip','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bimal Mondol','billing_name'=&gt;'Bimal Mondol','ledger_group_id'=&gt;16,'address1'=&gt;'Nabadwip','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H47" s="2">
         <v>20</v>
@@ -3677,30 +3675,30 @@
       </c>
       <c r="N47" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Pulin Bihari Ranabilling_name'=&gt;'Pulin Bihari Rana','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'97756692689775669268','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Pulin Bihari Rana','billing_name'=&gt;'Pulin Bihari Rana','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'9775669268','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;475210,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C48">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E48" t="s">
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H48" s="2">
         <v>20</v>
@@ -3716,21 +3714,21 @@
       </c>
       <c r="N48" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Modinabilling_name'=&gt;'Modina','ledger_group_id'=&gt;16,'address1'=&gt;'Chandipur','mobile1'=&gt;'86961236668696123666','mobile2'=&gt;'9732984449','state_id'=&gt;20,'pin'=&gt;'743399','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Modina','billing_name'=&gt;'Modina','ledger_group_id'=&gt;16,'address1'=&gt;'Chandipur','mobile1'=&gt;'8696123666','mobile2'=&gt;'9732984449','state_id'=&gt;20,'pin'=&gt;'743399','transaction_type_id'=&gt;1,'opening_balance'=&gt;33276,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E49" t="s">
         <v>32</v>
@@ -3739,7 +3737,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H49" s="2">
         <v>20</v>
@@ -3755,30 +3753,30 @@
       </c>
       <c r="N49" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Soshibhuson Basanalayabilling_name'=&gt;'Soshibhuson Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Baruipur','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Soshibhuson Basanalaya','billing_name'=&gt;'Soshibhuson Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Baruipur','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C50">
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H50" s="2">
         <v>20</v>
@@ -3794,30 +3792,30 @@
       </c>
       <c r="N50" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Manoj Kumarbilling_name'=&gt;'Manoj Kumar','ledger_group_id'=&gt;16,'address1'=&gt;'Bounsi, Bihar','mobile1'=&gt;'80519816558051981655','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Manoj Kumar','billing_name'=&gt;'Manoj Kumar','ledger_group_id'=&gt;16,'address1'=&gt;'Bounsi, Bihar','mobile1'=&gt;'8051981655','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51">
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E51" t="s">
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H51" s="2">
         <v>20</v>
@@ -3833,30 +3831,30 @@
       </c>
       <c r="N51" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'S K Nandy &amp; Son'Sbilling_name'=&gt;'S K Nandy &amp; Son'S','ledger_group_id'=&gt;16,'address1'=&gt;'Burrabazar','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'S K Nandy &amp; Son'S','billing_name'=&gt;'S K Nandy &amp; Son'S','ledger_group_id'=&gt;16,'address1'=&gt;'Burrabazar','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52">
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H52" s="2">
         <v>20</v>
@@ -3872,30 +3870,30 @@
       </c>
       <c r="N52" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Raju Babubilling_name'=&gt;'Raju Babu','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'77','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'8','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Raju Babu','billing_name'=&gt;'Raju Babu','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'7','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'8','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C53">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E53" t="s">
         <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G53" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H53" s="2">
         <v>20</v>
@@ -3911,30 +3909,30 @@
       </c>
       <c r="N53" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Modon Rana billing_name'=&gt;'Modon Rana ','ledger_group_id'=&gt;16,'address1'=&gt;'Mahishadal ','mobile1'=&gt;'98874512349887451234','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721628','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Modon Rana ','billing_name'=&gt;'Modon Rana ','ledger_group_id'=&gt;16,'address1'=&gt;'Mahishadal ','mobile1'=&gt;'9887451234','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721628','transaction_type_id'=&gt;1,'opening_balance'=&gt;102989,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C54">
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H54" s="2">
         <v>20</v>
@@ -3950,30 +3948,30 @@
       </c>
       <c r="N54" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Lokenath Shawbilling_name'=&gt;'Lokenath Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Behala ','mobile1'=&gt;'90626992189062699218','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Lokenath Shaw','billing_name'=&gt;'Lokenath Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Behala ','mobile1'=&gt;'9062699218','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55">
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E55" t="s">
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H55" s="2">
         <v>20</v>
@@ -3989,30 +3987,30 @@
       </c>
       <c r="N55" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Bhasan Kangsa Banikbilling_name'=&gt;'Bhasan Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Bally , Ghoshpara','mobile1'=&gt;'80178100708017810070','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bhasan Kangsa Banik','billing_name'=&gt;'Bhasan Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Bally , Ghoshpara','mobile1'=&gt;'8017810070','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56">
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H56" s="2">
         <v>20</v>
@@ -4028,30 +4026,30 @@
       </c>
       <c r="N56" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Giyasuddin Gajibilling_name'=&gt;'Giyasuddin Gaji','ledger_group_id'=&gt;16,'address1'=&gt;'Kashinagar','mobile1'=&gt;'97328111589732811158','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743349','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Giyasuddin Gaji','billing_name'=&gt;'Giyasuddin Gaji','ledger_group_id'=&gt;16,'address1'=&gt;'Kashinagar','mobile1'=&gt;'9732811158','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743349','transaction_type_id'=&gt;1,'opening_balance'=&gt;1846374,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C57">
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E57" t="s">
         <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H57" s="2">
         <v>20</v>
@@ -4067,30 +4065,30 @@
       </c>
       <c r="N57" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Raju Mamabilling_name'=&gt;'Raju Mama','ledger_group_id'=&gt;16,'address1'=&gt;'Silchar','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Raju Mama','billing_name'=&gt;'Raju Mama','ledger_group_id'=&gt;16,'address1'=&gt;'Silchar','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58">
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H58" s="2">
         <v>20</v>
@@ -4106,30 +4104,30 @@
       </c>
       <c r="N58" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Kamal Das (Radha Gobindo Gift House)billing_name'=&gt;'Kamal Das (Radha Gobindo Gift House)','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'70299090267029909026','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Kamal Das (Radha Gobindo Gift House)','billing_name'=&gt;'Kamal Das (Radha Gobindo Gift House)','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'7029909026','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59">
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E59" t="s">
         <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H59" s="2">
         <v>20</v>
@@ -4145,30 +4143,30 @@
       </c>
       <c r="N59" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Shyama Basanalayabilling_name'=&gt;'Shyama Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Kalibajar , Jasora','mobile1'=&gt;'99879987129987998712','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721641','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Shyama Basanalaya','billing_name'=&gt;'Shyama Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Kalibajar , Jasora','mobile1'=&gt;'9987998712','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721641','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60">
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E60" t="s">
         <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H60" s="2">
         <v>20</v>
@@ -4184,30 +4182,30 @@
       </c>
       <c r="N60" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Pradeep Nandybilling_name'=&gt;'Pradeep Nandy','ledger_group_id'=&gt;16,'address1'=&gt;'Ghatal','mobile1'=&gt;'999999','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Pradeep Nandy','billing_name'=&gt;'Pradeep Nandy','ledger_group_id'=&gt;16,'address1'=&gt;'Ghatal','mobile1'=&gt;'999','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;11876,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H61" s="2">
         <v>20</v>
@@ -4223,30 +4221,30 @@
       </c>
       <c r="N61" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Pramila Storesbilling_name'=&gt;'Pramila Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Belgharia','mobile1'=&gt;'89616980878961698087','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700056','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Pramila Stores','billing_name'=&gt;'Pramila Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Belgharia','mobile1'=&gt;'8961698087','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700056','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C62">
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E62" t="s">
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H62" s="2">
         <v>20</v>
@@ -4262,30 +4260,30 @@
       </c>
       <c r="N62" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Jayanta Shawbilling_name'=&gt;'Jayanta Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Odisha, Jamdhari, Dhamora','mobile1'=&gt;'73814556317381455631','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'6','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Jayanta Shaw','billing_name'=&gt;'Jayanta Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Odisha, Jamdhari, Dhamora','mobile1'=&gt;'7381455631','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'6','transaction_type_id'=&gt;1,'opening_balance'=&gt;4258,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C63">
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E63" t="s">
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H63" s="2">
         <v>20</v>
@@ -4301,30 +4299,30 @@
       </c>
       <c r="N63" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Alok Karmakarbilling_name'=&gt;'Alok Karmakar','ledger_group_id'=&gt;16,'address1'=&gt;'Patrasayer','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Alok Karmakar','billing_name'=&gt;'Alok Karmakar','ledger_group_id'=&gt;16,'address1'=&gt;'Patrasayer','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64">
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H64" s="2">
         <v>20</v>
@@ -4340,30 +4338,30 @@
       </c>
       <c r="N64" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Shibtala Basan Bhanderbilling_name'=&gt;'Shibtala Basan Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Gorabajar, Berhampore','mobile1'=&gt;'97325372449732537244','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Shibtala Basan Bhander','billing_name'=&gt;'Shibtala Basan Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Gorabajar, Berhampore','mobile1'=&gt;'9732537244','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;53822,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C65">
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E65" t="s">
         <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H65" s="2">
         <v>20</v>
@@ -4379,30 +4377,30 @@
       </c>
       <c r="N65" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Sujoy Nandibilling_name'=&gt;'Sujoy Nandi','ledger_group_id'=&gt;16,'address1'=&gt;'Tata Holudpukur','mobile1'=&gt;'62051806916205180691','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sujoy Nandi','billing_name'=&gt;'Sujoy Nandi','ledger_group_id'=&gt;16,'address1'=&gt;'Tata Holudpukur','mobile1'=&gt;'6205180691','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C66">
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G66" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H66" s="2">
         <v>20</v>
@@ -4418,30 +4416,30 @@
       </c>
       <c r="N66" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'Sanjaybilling_name'=&gt;'Sanjay','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'88456321218845632121','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700026','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sanjay','billing_name'=&gt;'Sanjay','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'8845632121','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700026','transaction_type_id'=&gt;1,'opening_balance'=&gt;36444,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C67">
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E67" t="s">
         <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H67" s="2">
         <v>20</v>
@@ -4457,30 +4455,30 @@
       </c>
       <c r="N67" t="str">
         <f t="shared" si="0"/>
-        <v>['ledger_name'=&gt;'New Lokenath Basanalayabilling_name'=&gt;'New Lokenath Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Kasaripatty, Agartala, Holding No. 121E/House No. 203050, West Tripura','mobile1'=&gt;'98620814989862081498','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'0','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'New Lokenath Basanalaya','billing_name'=&gt;'New Lokenath Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Kasaripatty, Agartala, Holding No. 121E/House No. 203050, West Tripura','mobile1'=&gt;'9862081498','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'0','transaction_type_id'=&gt;1,'opening_balance'=&gt;143685,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C68">
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E68" t="s">
         <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G68" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H68" s="2">
         <v>20</v>
@@ -4495,31 +4493,31 @@
         <v>143685</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" ref="N68:N131" si="1">CONCATENATE($A$2,$A$3,$B$2,A69,$B$3,$B$2,B69,$C$2,$C$3,$D$2,C69,$E$2,$D$3,$B$2,D69,$C$2,$E$3,$B$2,E69,E69,$C$2,$F$3,$B$2,F69,$C$2,$H$3,$D$2,H69,$E$2,$I$3,$B$2,I69,$C$2,$K$3,$D$2,$K$4,$F$2)</f>
-        <v>['ledger_name'=&gt;'Sree Guru Trading Co.billing_name'=&gt;'Sree Guru Trading Co.','ledger_group_id'=&gt;16,'address1'=&gt;'Durgapur, Benachiti, ','mobile1'=&gt;'83485557698348555769','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700013','transaction_type_id'=&gt;1],</v>
+        <f t="shared" ref="N68:N131" si="1">CONCATENATE($A$2,$A$3,$B$2,A69,$B$3,$B$2,B69,$C$2,$C$3,$D$2,C69,$E$2,$D$3,$B$2,D69,$C$2,$E$3,$B$2,E69,$C$2,$F$3,$B$2,F69,$C$2,$H$3,$D$2,H69,$E$2,$I$3,$B$2,I69,$C$2,$K$3,$D$2,$K$4,$E$2,$L$3,$D$2,L69,",'customer_category_id'=&gt;2",$F$2)</f>
+        <v>['ledger_name'=&gt;'Sree Guru Trading Co.','billing_name'=&gt;'Sree Guru Trading Co.','ledger_group_id'=&gt;16,'address1'=&gt;'Durgapur, Benachiti, ','mobile1'=&gt;'8348555769','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700013','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69">
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E69" t="s">
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H69" s="2">
         <v>20</v>
@@ -4535,30 +4533,30 @@
       </c>
       <c r="N69" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Piyar Alibilling_name'=&gt;'Piyar Ali','ledger_group_id'=&gt;16,'address1'=&gt;'Basirhat','mobile1'=&gt;'96695412369669541236','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743411','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Piyar Ali','billing_name'=&gt;'Piyar Ali','ledger_group_id'=&gt;16,'address1'=&gt;'Basirhat','mobile1'=&gt;'9669541236','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743411','transaction_type_id'=&gt;1,'opening_balance'=&gt;27942,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C70">
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E70" t="s">
         <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H70" s="2">
         <v>20</v>
@@ -4574,30 +4572,30 @@
       </c>
       <c r="N70" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Mohon Sahubilling_name'=&gt;'Mohon Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Tobin Road','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Mohon Sahu','billing_name'=&gt;'Mohon Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Tobin Road','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71">
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E71" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G71" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H71" s="2">
         <v>20</v>
@@ -4613,30 +4611,30 @@
       </c>
       <c r="N71" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Sudip Kangsa Banikbilling_name'=&gt;'Sudip Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Bardhaman','mobile1'=&gt;'97358743219735874321','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sudip Kangsa Banik','billing_name'=&gt;'Sudip Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Bardhaman','mobile1'=&gt;'9735874321','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72">
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E72" t="s">
         <v>52</v>
       </c>
       <c r="F72" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G72" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H72" s="2">
         <v>20</v>
@@ -4652,30 +4650,30 @@
       </c>
       <c r="N72" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Sibu Duttabilling_name'=&gt;'Sibu Dutta','ledger_group_id'=&gt;16,'address1'=&gt;'New Barrackpore','mobile1'=&gt;'88123166948812316694','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700131','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sibu Dutta','billing_name'=&gt;'Sibu Dutta','ledger_group_id'=&gt;16,'address1'=&gt;'New Barrackpore','mobile1'=&gt;'8812316694','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700131','transaction_type_id'=&gt;1,'opening_balance'=&gt;52857,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C73">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E73" t="s">
         <v>53</v>
       </c>
       <c r="F73" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G73" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H73" s="2">
         <v>20</v>
@@ -4691,30 +4689,30 @@
       </c>
       <c r="N73" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Subhobilling_name'=&gt;'Subho','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'91634051609163405160','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Subho','billing_name'=&gt;'Subho','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'9163405160','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;9990,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C74">
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E74" t="s">
         <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H74" s="2">
         <v>20</v>
@@ -4730,30 +4728,30 @@
       </c>
       <c r="N74" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Bishu Basanalyabilling_name'=&gt;'Bishu Basanalya','ledger_group_id'=&gt;16,'address1'=&gt;'530 A Jodhpur Bajar','mobile1'=&gt;'62891142816289114281','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bishu Basanalya','billing_name'=&gt;'Bishu Basanalya','ledger_group_id'=&gt;16,'address1'=&gt;'530 A Jodhpur Bajar','mobile1'=&gt;'6289114281','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;30559,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C75">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E75" t="s">
         <v>55</v>
       </c>
       <c r="F75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H75" s="2">
         <v>20</v>
@@ -4769,30 +4767,30 @@
       </c>
       <c r="N75" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Bishnu Paulbilling_name'=&gt;'Bishnu Paul','ledger_group_id'=&gt;16,'address1'=&gt;'Maslandapur','mobile1'=&gt;'99331720539933172053','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743289','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bishnu Paul','billing_name'=&gt;'Bishnu Paul','ledger_group_id'=&gt;16,'address1'=&gt;'Maslandapur','mobile1'=&gt;'9933172053','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743289','transaction_type_id'=&gt;1,'opening_balance'=&gt;45163,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76">
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E76" t="s">
         <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G76" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H76" s="2">
         <v>20</v>
@@ -4808,15 +4806,15 @@
       </c>
       <c r="N76" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Susanto Mondolbilling_name'=&gt;'Susanto Mondol','ledger_group_id'=&gt;16,'address1'=&gt;'S','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Susanto Mondol','billing_name'=&gt;'Susanto Mondol','ledger_group_id'=&gt;16,'address1'=&gt;'S','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C77">
         <v>16</v>
@@ -4828,10 +4826,10 @@
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G77" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H77" s="2">
         <v>20</v>
@@ -4847,21 +4845,21 @@
       </c>
       <c r="N77" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Khushir Sangsarbilling_name'=&gt;'Khushir Sangsar','ledger_group_id'=&gt;16,'address1'=&gt;'186/1 H N Sarkar Road, Bansdroni','mobile1'=&gt;'94332034889433203488','mobile2'=&gt;'9830853484','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Khushir Sangsar','billing_name'=&gt;'Khushir Sangsar','ledger_group_id'=&gt;16,'address1'=&gt;'186/1 H N Sarkar Road, Bansdroni','mobile1'=&gt;'9433203488','mobile2'=&gt;'9830853484','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;2029,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C78">
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E78" t="s">
         <v>58</v>
@@ -4870,7 +4868,7 @@
         <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H78" s="2">
         <v>20</v>
@@ -4886,30 +4884,30 @@
       </c>
       <c r="N78" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Laxmi Basanalayabilling_name'=&gt;'Laxmi Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Baruipur','mobile1'=&gt;'70031219637003121963','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700144','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Laxmi Basanalaya','billing_name'=&gt;'Laxmi Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Baruipur','mobile1'=&gt;'7003121963','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700144','transaction_type_id'=&gt;1,'opening_balance'=&gt;571,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79">
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E79" t="s">
         <v>60</v>
       </c>
       <c r="F79" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G79" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H79" s="2">
         <v>20</v>
@@ -4925,30 +4923,30 @@
       </c>
       <c r="N79" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Rajani Acharjeebilling_name'=&gt;'Rajani Acharjee','ledger_group_id'=&gt;16,'address1'=&gt;'Dosarhat','mobile1'=&gt;'96797054279679705427','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rajani Acharjee','billing_name'=&gt;'Rajani Acharjee','ledger_group_id'=&gt;16,'address1'=&gt;'Dosarhat','mobile1'=&gt;'9679705427','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C80">
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E80" t="s">
         <v>61</v>
       </c>
       <c r="F80" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G80" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H80" s="2">
         <v>20</v>
@@ -4964,30 +4962,30 @@
       </c>
       <c r="N80" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Jogobondhu Storesbilling_name'=&gt;'Jogobondhu Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Baguiati','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Jogobondhu Stores','billing_name'=&gt;'Jogobondhu Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Baguiati','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C81">
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G81" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H81" s="2">
         <v>20</v>
@@ -5003,30 +5001,30 @@
       </c>
       <c r="N81" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Ashutosh Mahinderbilling_name'=&gt;'Ashutosh Mahinder','ledger_group_id'=&gt;16,'address1'=&gt;'Salkia','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'712512','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Ashutosh Mahinder','billing_name'=&gt;'Ashutosh Mahinder','ledger_group_id'=&gt;16,'address1'=&gt;'Salkia','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'712512','transaction_type_id'=&gt;1,'opening_balance'=&gt;3728,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C82">
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G82" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H82" s="2">
         <v>20</v>
@@ -5042,30 +5040,30 @@
       </c>
       <c r="N82" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Swapan Kr. Duttabilling_name'=&gt;'Swapan Kr. Dutta','ledger_group_id'=&gt;16,'address1'=&gt;'Nolhati, Birbhum','mobile1'=&gt;'98001702169800170216','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Swapan Kr. Dutta','billing_name'=&gt;'Swapan Kr. Dutta','ledger_group_id'=&gt;16,'address1'=&gt;'Nolhati, Birbhum','mobile1'=&gt;'9800170216','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C83">
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E83" t="s">
         <v>62</v>
       </c>
       <c r="F83" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H83" s="2">
         <v>20</v>
@@ -5081,30 +5079,30 @@
       </c>
       <c r="N83" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Sibendranath Kesaribilling_name'=&gt;'Sibendranath Kesari','ledger_group_id'=&gt;16,'address1'=&gt;'Bandel, Gherabagan','mobile1'=&gt;'98832914349883291434','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sibendranath Kesari','billing_name'=&gt;'Sibendranath Kesari','ledger_group_id'=&gt;16,'address1'=&gt;'Bandel, Gherabagan','mobile1'=&gt;'9883291434','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C84">
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E84" t="s">
         <v>63</v>
       </c>
       <c r="F84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H84" s="2">
         <v>20</v>
@@ -5120,30 +5118,30 @@
       </c>
       <c r="N84" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Prakash Mondolbilling_name'=&gt;'Prakash Mondol','ledger_group_id'=&gt;16,'address1'=&gt;'Gosaba','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Prakash Mondol','billing_name'=&gt;'Prakash Mondol','ledger_group_id'=&gt;16,'address1'=&gt;'Gosaba','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C85">
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E85" t="s">
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G85" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H85" s="2">
         <v>20</v>
@@ -5159,30 +5157,30 @@
       </c>
       <c r="N85" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Renu Steelbilling_name'=&gt;'Renu Steel','ledger_group_id'=&gt;16,'address1'=&gt;'Jogu Bajar , Bhawanipore','mobile1'=&gt;'85829114318582911431','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'8','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Renu Steel','billing_name'=&gt;'Renu Steel','ledger_group_id'=&gt;16,'address1'=&gt;'Jogu Bajar , Bhawanipore','mobile1'=&gt;'8582911431','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'8','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86">
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E86" t="s">
         <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G86" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H86" s="2">
         <v>20</v>
@@ -5198,30 +5196,30 @@
       </c>
       <c r="N86" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Bagnan Basanalayabilling_name'=&gt;'Bagnan Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Bagnan Ooty Road','mobile1'=&gt;'99645123469964512346','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'711303','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bagnan Basanalaya','billing_name'=&gt;'Bagnan Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Bagnan Ooty Road','mobile1'=&gt;'9964512346','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'711303','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87">
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E87" t="s">
         <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G87" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H87" s="2">
         <v>20</v>
@@ -5237,21 +5235,21 @@
       </c>
       <c r="N87" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Gautam Kundubilling_name'=&gt;'Gautam Kundu','ledger_group_id'=&gt;16,'address1'=&gt;'Shibpur Bajar','mobile1'=&gt;'98747173349874717334','mobile2'=&gt;'7278756892','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Gautam Kundu','billing_name'=&gt;'Gautam Kundu','ledger_group_id'=&gt;16,'address1'=&gt;'Shibpur Bajar','mobile1'=&gt;'9874717334','mobile2'=&gt;'7278756892','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;356099,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E88" t="s">
         <v>66</v>
@@ -5260,7 +5258,7 @@
         <v>67</v>
       </c>
       <c r="G88" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H88" s="2">
         <v>20</v>
@@ -5276,30 +5274,30 @@
       </c>
       <c r="N88" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Kabita Basanalayabilling_name'=&gt;'Kabita Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Durga Chowk, Haldia, Colony Bajar','mobile1'=&gt;'76020681837602068183','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Kabita Basanalaya','billing_name'=&gt;'Kabita Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Durga Chowk, Haldia, Colony Bajar','mobile1'=&gt;'7602068183','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;2264,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C89">
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E89" t="s">
         <v>68</v>
       </c>
       <c r="F89" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G89" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H89" s="2">
         <v>20</v>
@@ -5315,30 +5313,30 @@
       </c>
       <c r="N89" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Biswajit Naskarbilling_name'=&gt;'Biswajit Naskar','ledger_group_id'=&gt;16,'address1'=&gt;'Champahati','mobile1'=&gt;'97747474369774747436','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743330','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Biswajit Naskar','billing_name'=&gt;'Biswajit Naskar','ledger_group_id'=&gt;16,'address1'=&gt;'Champahati','mobile1'=&gt;'9774747436','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743330','transaction_type_id'=&gt;1,'opening_balance'=&gt;38648,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C90">
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E90" t="s">
         <v>69</v>
       </c>
       <c r="F90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H90" s="2">
         <v>20</v>
@@ -5354,15 +5352,15 @@
       </c>
       <c r="N90" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Modhusudon Kangsa Banikbilling_name'=&gt;'Modhusudon Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'J','mobile1'=&gt;'77','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Modhusudon Kangsa Banik','billing_name'=&gt;'Modhusudon Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'J','mobile1'=&gt;'7','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C91">
         <v>16</v>
@@ -5374,10 +5372,10 @@
         <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H91" s="2">
         <v>20</v>
@@ -5393,21 +5391,21 @@
       </c>
       <c r="N91" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'N S Shawbilling_name'=&gt;'N S Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Babubajar','mobile1'=&gt;'96747971889674797188','mobile2'=&gt;'8777782289','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'N S Shaw','billing_name'=&gt;'N S Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Babubajar','mobile1'=&gt;'9674797188','mobile2'=&gt;'8777782289','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;10120,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C92">
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E92" t="s">
         <v>71</v>
@@ -5416,7 +5414,7 @@
         <v>72</v>
       </c>
       <c r="G92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H92" s="2">
         <v>20</v>
@@ -5432,30 +5430,30 @@
       </c>
       <c r="N92" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Ashok Mitrabilling_name'=&gt;'Ashok Mitra','ledger_group_id'=&gt;16,'address1'=&gt;'Jagatpur','mobile1'=&gt;'98369047519836904751','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700059','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Ashok Mitra','billing_name'=&gt;'Ashok Mitra','ledger_group_id'=&gt;16,'address1'=&gt;'Jagatpur','mobile1'=&gt;'9836904751','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700059','transaction_type_id'=&gt;1,'opening_balance'=&gt;7428,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C93">
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E93" t="s">
         <v>73</v>
       </c>
       <c r="F93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G93" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H93" s="2">
         <v>20</v>
@@ -5471,15 +5469,15 @@
       </c>
       <c r="N93" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Narayanbilling_name'=&gt;'Narayan','ledger_group_id'=&gt;16,'address1'=&gt;'S','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Narayan','billing_name'=&gt;'Narayan','ledger_group_id'=&gt;16,'address1'=&gt;'S','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94">
         <v>16</v>
@@ -5491,10 +5489,10 @@
         <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G94" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H94" s="2">
         <v>20</v>
@@ -5510,30 +5508,30 @@
       </c>
       <c r="N94" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Kali Ganga Basanalayabilling_name'=&gt;'Kali Ganga Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Kali Ganga Basanalaya','billing_name'=&gt;'Kali Ganga Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C95">
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H95" s="2">
         <v>20</v>
@@ -5549,30 +5547,30 @@
       </c>
       <c r="N95" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Biswajit Deybilling_name'=&gt;'Biswajit Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Basirhat','mobile1'=&gt;'96632323239663232323','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743411','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Biswajit Dey','billing_name'=&gt;'Biswajit Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Basirhat','mobile1'=&gt;'9663232323','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743411','transaction_type_id'=&gt;1,'opening_balance'=&gt;345642,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96">
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E96" t="s">
         <v>74</v>
       </c>
       <c r="F96" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G96" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H96" s="2">
         <v>20</v>
@@ -5588,15 +5586,15 @@
       </c>
       <c r="N96" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Prabir Da billing_name'=&gt;'Prabir Da ','ledger_group_id'=&gt;16,'address1'=&gt;'S','mobile1'=&gt;'96740845159674084515','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Prabir Da ','billing_name'=&gt;'Prabir Da ','ledger_group_id'=&gt;16,'address1'=&gt;'S','mobile1'=&gt;'9674084515','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97">
         <v>16</v>
@@ -5608,10 +5606,10 @@
         <v>75</v>
       </c>
       <c r="F97" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G97" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H97" s="2">
         <v>20</v>
@@ -5627,30 +5625,30 @@
       </c>
       <c r="N97" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Vijay Guptabilling_name'=&gt;'Vijay Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'98833544739883354473','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Vijay Gupta','billing_name'=&gt;'Vijay Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'9883354473','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;12304,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C98">
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E98" t="s">
         <v>76</v>
       </c>
       <c r="F98" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G98" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H98" s="2">
         <v>20</v>
@@ -5666,30 +5664,30 @@
       </c>
       <c r="N98" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Jayanta Dutta (Baba)billing_name'=&gt;'Jayanta Dutta (Baba)','ledger_group_id'=&gt;16,'address1'=&gt;'Nabadwip','mobile1'=&gt;'93332302519333230251','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'741302','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Jayanta Dutta (Baba)','billing_name'=&gt;'Jayanta Dutta (Baba)','ledger_group_id'=&gt;16,'address1'=&gt;'Nabadwip','mobile1'=&gt;'9333230251','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'741302','transaction_type_id'=&gt;1,'opening_balance'=&gt;109369,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C99">
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E99" t="s">
         <v>77</v>
       </c>
       <c r="F99" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G99" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H99" s="2">
         <v>20</v>
@@ -5705,30 +5703,30 @@
       </c>
       <c r="N99" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Maa Tara Basanalayabilling_name'=&gt;'Maa Tara Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Domjur','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Maa Tara Basanalaya','billing_name'=&gt;'Maa Tara Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Domjur','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C100">
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H100" s="2">
         <v>20</v>
@@ -5744,30 +5742,30 @@
       </c>
       <c r="N100" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Badal Dasbilling_name'=&gt;'Badal Das','ledger_group_id'=&gt;16,'address1'=&gt;'Paniparul','mobile1'=&gt;'93336969699333696969','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721448','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Badal Das','billing_name'=&gt;'Badal Das','ledger_group_id'=&gt;16,'address1'=&gt;'Paniparul','mobile1'=&gt;'9333696969','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'721448','transaction_type_id'=&gt;1,'opening_balance'=&gt;33906,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C101">
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E101" t="s">
         <v>78</v>
       </c>
       <c r="F101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G101" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H101" s="2">
         <v>20</v>
@@ -5783,15 +5781,15 @@
       </c>
       <c r="N101" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Deepak Metalbilling_name'=&gt;'Deepak Metal','ledger_group_id'=&gt;16,'address1'=&gt;'A','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Deepak Metal','billing_name'=&gt;'Deepak Metal','ledger_group_id'=&gt;16,'address1'=&gt;'A','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C102">
         <v>16</v>
@@ -5803,10 +5801,10 @@
         <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G102" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H102" s="2">
         <v>20</v>
@@ -5822,30 +5820,30 @@
       </c>
       <c r="N102" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Dinobondhu Potiharbilling_name'=&gt;'Dinobondhu Potihar','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Dinobondhu Potihar','billing_name'=&gt;'Dinobondhu Potihar','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C103">
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G103" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H103" s="2">
         <v>20</v>
@@ -5861,30 +5859,30 @@
       </c>
       <c r="N103" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Jyotinmoy Dasbilling_name'=&gt;'Jyotinmoy Das','ledger_group_id'=&gt;16,'address1'=&gt;'Murogacha','mobile1'=&gt;'98749874129874987412','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743504','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Jyotinmoy Das','billing_name'=&gt;'Jyotinmoy Das','ledger_group_id'=&gt;16,'address1'=&gt;'Murogacha','mobile1'=&gt;'9874987412','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743504','transaction_type_id'=&gt;1,'opening_balance'=&gt;353670,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C104">
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E104" t="s">
         <v>80</v>
       </c>
       <c r="F104" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G104" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H104" s="2">
         <v>20</v>
@@ -5900,30 +5898,30 @@
       </c>
       <c r="N104" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Manik Sadhukabilling_name'=&gt;'Manik Sadhuka','ledger_group_id'=&gt;16,'address1'=&gt;'Maju','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Manik Sadhuka','billing_name'=&gt;'Manik Sadhuka','ledger_group_id'=&gt;16,'address1'=&gt;'Maju','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C105">
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G105" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H105" s="2">
         <v>20</v>
@@ -5939,30 +5937,30 @@
       </c>
       <c r="N105" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Maheswar Singhbilling_name'=&gt;'Maheswar Singh','ledger_group_id'=&gt;16,'address1'=&gt;'Chanditala','mobile1'=&gt;'86978697128697869712','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'712702','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Maheswar Singh','billing_name'=&gt;'Maheswar Singh','ledger_group_id'=&gt;16,'address1'=&gt;'Chanditala','mobile1'=&gt;'8697869712','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'712702','transaction_type_id'=&gt;1,'opening_balance'=&gt;20862,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C106">
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E106" t="s">
         <v>81</v>
       </c>
       <c r="F106" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G106" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H106" s="2">
         <v>20</v>
@@ -5978,30 +5976,30 @@
       </c>
       <c r="N106" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Bina Storesbilling_name'=&gt;'Bina Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Berhampore','mobile1'=&gt;'77','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bina Stores','billing_name'=&gt;'Bina Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Berhampore','mobile1'=&gt;'7','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;38007,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C107">
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E107" t="s">
         <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G107" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H107" s="2">
         <v>20</v>
@@ -6017,30 +6015,30 @@
       </c>
       <c r="N107" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Soshibhushon Deybilling_name'=&gt;'Soshibhushon Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Soshibhushon Dey','billing_name'=&gt;'Soshibhushon Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C108">
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G108" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H108" s="2">
         <v>20</v>
@@ -6056,30 +6054,30 @@
       </c>
       <c r="N108" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'New Gajibilling_name'=&gt;'New Gaji','ledger_group_id'=&gt;16,'address1'=&gt;'Baruipur','mobile1'=&gt;'90072233049007223304','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700144','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'New Gaji','billing_name'=&gt;'New Gaji','ledger_group_id'=&gt;16,'address1'=&gt;'Baruipur','mobile1'=&gt;'9007223304','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700144','transaction_type_id'=&gt;1,'opening_balance'=&gt;330884,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C109">
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E109" t="s">
         <v>82</v>
       </c>
       <c r="F109" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H109" s="2">
         <v>20</v>
@@ -6095,30 +6093,30 @@
       </c>
       <c r="N109" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Dibeyndubilling_name'=&gt;'Dibeyndu','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Dibeyndu','billing_name'=&gt;'Dibeyndu','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C110">
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E110" t="s">
         <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G110" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H110" s="2">
         <v>20</v>
@@ -6134,30 +6132,30 @@
       </c>
       <c r="N110" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Tapan Posaribilling_name'=&gt;'Tapan Posari','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tapan Posari','billing_name'=&gt;'Tapan Posari','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;2997,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C111">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G111" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H111" s="2">
         <v>20</v>
@@ -6173,30 +6171,30 @@
       </c>
       <c r="N111" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Sobasreebilling_name'=&gt;'Sobasree','ledger_group_id'=&gt;16,'address1'=&gt;'Sonarpur','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743329','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sobasree','billing_name'=&gt;'Sobasree','ledger_group_id'=&gt;16,'address1'=&gt;'Sonarpur','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743329','transaction_type_id'=&gt;1,'opening_balance'=&gt;60710,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C112">
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E112" t="s">
         <v>83</v>
       </c>
       <c r="F112" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G112" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H112" s="2">
         <v>20</v>
@@ -6212,30 +6210,30 @@
       </c>
       <c r="N112" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Rabi Ranabilling_name'=&gt;'Rabi Rana','ledger_group_id'=&gt;16,'address1'=&gt;'Egra , Paniparul','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rabi Rana','billing_name'=&gt;'Rabi Rana','ledger_group_id'=&gt;16,'address1'=&gt;'Egra , Paniparul','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C113">
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G113" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H113" s="2">
         <v>20</v>
@@ -6251,30 +6249,30 @@
       </c>
       <c r="N113" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Kalu billing_name'=&gt;'Kalu ','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700026','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Kalu ','billing_name'=&gt;'Kalu ','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700026','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C114">
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E114" t="s">
         <v>83</v>
       </c>
       <c r="F114" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G114" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H114" s="2">
         <v>20</v>
@@ -6290,30 +6288,30 @@
       </c>
       <c r="N114" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Maniklal Thakurmosaibilling_name'=&gt;'Maniklal Thakurmosai','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Maniklal Thakurmosai','billing_name'=&gt;'Maniklal Thakurmosai','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C115">
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E115" t="s">
         <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G115" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H115" s="2">
         <v>20</v>
@@ -6329,30 +6327,30 @@
       </c>
       <c r="N115" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Milan Sahubilling_name'=&gt;'Milan Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Milan Sahu','billing_name'=&gt;'Milan Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C116">
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G116" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H116" s="2">
         <v>20</v>
@@ -6368,30 +6366,30 @@
       </c>
       <c r="N116" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Padda Basanalayabilling_name'=&gt;'Padda Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'93328721859332872185','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Padda Basanalaya','billing_name'=&gt;'Padda Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'9332872185','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;1,'opening_balance'=&gt;104306,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C117">
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E117" t="s">
         <v>84</v>
       </c>
       <c r="F117" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G117" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H117" s="2">
         <v>20</v>
@@ -6407,21 +6405,21 @@
       </c>
       <c r="N117" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Bullet Kabirajbilling_name'=&gt;'Bullet Kabiraj','ledger_group_id'=&gt;16,'address1'=&gt;'Sonamukhi, Raja Coach Bus','mobile1'=&gt;'97321253099732125309','mobile2'=&gt;'8436223546','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bullet Kabiraj','billing_name'=&gt;'Bullet Kabiraj','ledger_group_id'=&gt;16,'address1'=&gt;'Sonamukhi, Raja Coach Bus','mobile1'=&gt;'9732125309','mobile2'=&gt;'8436223546','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;16042,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B118" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C118">
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E118" t="s">
         <v>85</v>
@@ -6430,7 +6428,7 @@
         <v>86</v>
       </c>
       <c r="G118" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H118" s="2">
         <v>20</v>
@@ -6446,30 +6444,30 @@
       </c>
       <c r="N118" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Thakur Dabilling_name'=&gt;'Thakur Da','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Thakur Da','billing_name'=&gt;'Thakur Da','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C119">
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G119" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H119" s="2">
         <v>20</v>
@@ -6485,30 +6483,30 @@
       </c>
       <c r="N119" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Gopal Saha billing_name'=&gt;'Gopal Saha ','ledger_group_id'=&gt;16,'address1'=&gt;'Baghajatin','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700086','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Gopal Saha ','billing_name'=&gt;'Gopal Saha ','ledger_group_id'=&gt;16,'address1'=&gt;'Baghajatin','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700086','transaction_type_id'=&gt;1,'opening_balance'=&gt;6380,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C120">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E120" t="s">
         <v>83</v>
       </c>
       <c r="F120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G120" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H120" s="2">
         <v>20</v>
@@ -6524,21 +6522,21 @@
       </c>
       <c r="N120" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'B D Andulbilling_name'=&gt;'B D Andul','ledger_group_id'=&gt;16,'address1'=&gt;'Andul','mobile1'=&gt;'82408658708240865870','mobile2'=&gt;'8820419322','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'B D Andul','billing_name'=&gt;'B D Andul','ledger_group_id'=&gt;16,'address1'=&gt;'Andul','mobile1'=&gt;'8240865870','mobile2'=&gt;'8820419322','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;12179,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C121">
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E121" t="s">
         <v>87</v>
@@ -6547,7 +6545,7 @@
         <v>88</v>
       </c>
       <c r="G121" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H121" s="2">
         <v>20</v>
@@ -6563,30 +6561,30 @@
       </c>
       <c r="N121" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Raj Kumar Guptabilling_name'=&gt;'Raj Kumar Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'98510488609851048860','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Raj Kumar Gupta','billing_name'=&gt;'Raj Kumar Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'9851048860','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;188120,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B122" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C122">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E122" t="s">
         <v>89</v>
       </c>
       <c r="F122" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G122" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H122" s="2">
         <v>20</v>
@@ -6602,30 +6600,30 @@
       </c>
       <c r="N122" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Suraj Laxmi Stores (Rajib)billing_name'=&gt;'Suraj Laxmi Stores (Rajib)','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'99977788819997778881','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700026','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Suraj Laxmi Stores (Rajib)','billing_name'=&gt;'Suraj Laxmi Stores (Rajib)','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'9997778881','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700026','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C123">
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E123" t="s">
         <v>90</v>
       </c>
       <c r="F123" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G123" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H123" s="2">
         <v>20</v>
@@ -6641,30 +6639,30 @@
       </c>
       <c r="N123" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Santosh Basanalayabilling_name'=&gt;'Santosh Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Chanditala','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Santosh Basanalaya','billing_name'=&gt;'Santosh Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Chanditala','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B124" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C124">
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G124" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H124" s="2">
         <v>20</v>
@@ -6680,30 +6678,30 @@
       </c>
       <c r="N124" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Juliebilling_name'=&gt;'Julie','ledger_group_id'=&gt;16,'address1'=&gt;'Raidighi','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Julie','billing_name'=&gt;'Julie','ledger_group_id'=&gt;16,'address1'=&gt;'Raidighi','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C125">
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G125" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H125" s="2">
         <v>20</v>
@@ -6719,30 +6717,30 @@
       </c>
       <c r="N125" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Bason Ghorbilling_name'=&gt;'Bason Ghor','ledger_group_id'=&gt;16,'address1'=&gt;'Kanchrapara','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743145','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bason Ghor','billing_name'=&gt;'Bason Ghor','ledger_group_id'=&gt;16,'address1'=&gt;'Kanchrapara','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743145','transaction_type_id'=&gt;1,'opening_balance'=&gt;2350,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B126" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C126">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E126" t="s">
         <v>83</v>
       </c>
       <c r="F126" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G126" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H126" s="2">
         <v>20</v>
@@ -6758,30 +6756,30 @@
       </c>
       <c r="N126" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Tapan Sahubilling_name'=&gt;'Tapan Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Paniparul','mobile1'=&gt;'99','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tapan Sahu','billing_name'=&gt;'Tapan Sahu','ledger_group_id'=&gt;16,'address1'=&gt;'Paniparul','mobile1'=&gt;'9','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C127">
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E127" t="s">
         <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G127" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H127" s="2">
         <v>20</v>
@@ -6797,30 +6795,30 @@
       </c>
       <c r="N127" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Hemchandra Paulbilling_name'=&gt;'Hemchandra Paul','ledger_group_id'=&gt;16,'address1'=&gt;'Gangarampur','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Hemchandra Paul','billing_name'=&gt;'Hemchandra Paul','ledger_group_id'=&gt;16,'address1'=&gt;'Gangarampur','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C128">
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G128" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H128" s="2">
         <v>20</v>
@@ -6836,30 +6834,30 @@
       </c>
       <c r="N128" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Kartick Kangsa Banikbilling_name'=&gt;'Kartick Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Duttapukur','mobile1'=&gt;'72786044517278604451','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'712258','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Kartick Kangsa Banik','billing_name'=&gt;'Kartick Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Duttapukur','mobile1'=&gt;'7278604451','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'712258','transaction_type_id'=&gt;1,'opening_balance'=&gt;148922,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C129">
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E129" t="s">
         <v>91</v>
       </c>
       <c r="F129" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G129" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H129" s="2">
         <v>20</v>
@@ -6875,30 +6873,30 @@
       </c>
       <c r="N129" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Maa Kali  Basanalyabilling_name'=&gt;'Maa Kali  Basanalya','ledger_group_id'=&gt;16,'address1'=&gt;'Josora','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Maa Kali  Basanalya','billing_name'=&gt;'Maa Kali  Basanalya','ledger_group_id'=&gt;16,'address1'=&gt;'Josora','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C130">
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H130" s="2">
         <v>20</v>
@@ -6914,30 +6912,30 @@
       </c>
       <c r="N130" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Uttam Mistirybilling_name'=&gt;'Uttam Mistiry','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Uttam Mistiry','billing_name'=&gt;'Uttam Mistiry','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B131" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C131">
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G131" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H131" s="2">
         <v>20</v>
@@ -6953,30 +6951,30 @@
       </c>
       <c r="N131" t="str">
         <f t="shared" si="1"/>
-        <v>['ledger_name'=&gt;'Rai Kishoribilling_name'=&gt;'Rai Kishori','ledger_group_id'=&gt;16,'address1'=&gt;'Maslandapur','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743289','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rai Kishori','billing_name'=&gt;'Rai Kishori','ledger_group_id'=&gt;16,'address1'=&gt;'Maslandapur','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743289','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C132">
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E132" t="s">
         <v>83</v>
       </c>
       <c r="F132" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G132" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H132" s="2">
         <v>20</v>
@@ -6991,8 +6989,8 @@
         <v>0</v>
       </c>
       <c r="N132" t="str">
-        <f t="shared" ref="N132:N195" si="2">CONCATENATE($A$2,$A$3,$B$2,A133,$B$3,$B$2,B133,$C$2,$C$3,$D$2,C133,$E$2,$D$3,$B$2,D133,$C$2,$E$3,$B$2,E133,E133,$C$2,$F$3,$B$2,F133,$C$2,$H$3,$D$2,H133,$E$2,$I$3,$B$2,I133,$C$2,$K$3,$D$2,$K$4,$F$2)</f>
-        <v>['ledger_name'=&gt;'N Tbilling_name'=&gt;'N T','ledger_group_id'=&gt;16,'address1'=&gt;'Assam','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <f t="shared" ref="N132:N195" si="2">CONCATENATE($A$2,$A$3,$B$2,A133,$B$3,$B$2,B133,$C$2,$C$3,$D$2,C133,$E$2,$D$3,$B$2,D133,$C$2,$E$3,$B$2,E133,$C$2,$F$3,$B$2,F133,$C$2,$H$3,$D$2,H133,$E$2,$I$3,$B$2,I133,$C$2,$K$3,$D$2,$K$4,$E$2,$L$3,$D$2,L133,",'customer_category_id'=&gt;2",$F$2)</f>
+        <v>['ledger_name'=&gt;'N T','billing_name'=&gt;'N T','ledger_group_id'=&gt;16,'address1'=&gt;'Assam','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7006,16 +7004,16 @@
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G133" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H133" s="2">
         <v>20</v>
@@ -7031,30 +7029,30 @@
       </c>
       <c r="N133" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Ajay Shawbilling_name'=&gt;'Ajay Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Canning','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743329','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Ajay Shaw','billing_name'=&gt;'Ajay Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Canning','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743329','transaction_type_id'=&gt;1,'opening_balance'=&gt;26220,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C134">
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E134" t="s">
         <v>83</v>
       </c>
       <c r="F134" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G134" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H134" s="2">
         <v>20</v>
@@ -7070,30 +7068,30 @@
       </c>
       <c r="N134" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Chittaranjan Mitrabilling_name'=&gt;'Chittaranjan Mitra','ledger_group_id'=&gt;16,'address1'=&gt;'Chakdah','mobile1'=&gt;'95937528269593752826','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Chittaranjan Mitra','billing_name'=&gt;'Chittaranjan Mitra','ledger_group_id'=&gt;16,'address1'=&gt;'Chakdah','mobile1'=&gt;'9593752826','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'7','transaction_type_id'=&gt;1,'opening_balance'=&gt;12305,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B135" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C135">
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E135" t="s">
         <v>93</v>
       </c>
       <c r="F135" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G135" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H135" s="2">
         <v>20</v>
@@ -7109,30 +7107,30 @@
       </c>
       <c r="N135" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Shirajbilling_name'=&gt;'Shiraj','ledger_group_id'=&gt;16,'address1'=&gt;'Rourkela','mobile1'=&gt;'98610780559861078055','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Shiraj','billing_name'=&gt;'Shiraj','ledger_group_id'=&gt;16,'address1'=&gt;'Rourkela','mobile1'=&gt;'9861078055','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B136" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C136">
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E136" t="s">
         <v>94</v>
       </c>
       <c r="F136" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G136" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H136" s="2">
         <v>20</v>
@@ -7148,30 +7146,30 @@
       </c>
       <c r="N136" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Akbar Gajibilling_name'=&gt;'Akbar Gaji','ledger_group_id'=&gt;16,'address1'=&gt;'Baruipur','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700144','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Akbar Gaji','billing_name'=&gt;'Akbar Gaji','ledger_group_id'=&gt;16,'address1'=&gt;'Baruipur','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700144','transaction_type_id'=&gt;1,'opening_balance'=&gt;66663,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C137">
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E137" t="s">
         <v>83</v>
       </c>
       <c r="F137" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G137" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H137" s="2">
         <v>20</v>
@@ -7187,30 +7185,30 @@
       </c>
       <c r="N137" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Pandey Jibilling_name'=&gt;'Pandey Ji','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Pandey Ji','billing_name'=&gt;'Pandey Ji','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;41373,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C138">
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G138" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H138" s="2">
         <v>20</v>
@@ -7226,30 +7224,30 @@
       </c>
       <c r="N138" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Partho Sarathi Biswasbilling_name'=&gt;'Partho Sarathi Biswas','ledger_group_id'=&gt;16,'address1'=&gt;'Agartala','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Partho Sarathi Biswas','billing_name'=&gt;'Partho Sarathi Biswas','ledger_group_id'=&gt;16,'address1'=&gt;'Agartala','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B139" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C139">
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G139" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H139" s="2">
         <v>20</v>
@@ -7265,30 +7263,30 @@
       </c>
       <c r="N139" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Tapan Dey billing_name'=&gt;'Tapan Dey ','ledger_group_id'=&gt;16,'address1'=&gt;'Basirhat','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743411','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tapan Dey ','billing_name'=&gt;'Tapan Dey ','ledger_group_id'=&gt;16,'address1'=&gt;'Basirhat','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743411','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B140" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C140">
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E140" t="s">
         <v>83</v>
       </c>
       <c r="F140" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G140" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H140" s="2">
         <v>20</v>
@@ -7304,30 +7302,30 @@
       </c>
       <c r="N140" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Matri Smritybilling_name'=&gt;'Matri Smrity','ledger_group_id'=&gt;16,'address1'=&gt;'Khagra','mobile1'=&gt;'94758810159475881015','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Matri Smrity','billing_name'=&gt;'Matri Smrity','ledger_group_id'=&gt;16,'address1'=&gt;'Khagra','mobile1'=&gt;'9475881015','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C141">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E141" t="s">
         <v>95</v>
       </c>
       <c r="F141" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G141" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H141" s="2">
         <v>20</v>
@@ -7343,30 +7341,30 @@
       </c>
       <c r="N141" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Chaad Mohon Sahabilling_name'=&gt;'Chaad Mohon Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Naihati','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Chaad Mohon Saha','billing_name'=&gt;'Chaad Mohon Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Naihati','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C142">
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G142" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H142" s="2">
         <v>20</v>
@@ -7382,30 +7380,30 @@
       </c>
       <c r="N142" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Pappa Sales billing_name'=&gt;'Pappa Sales ','ledger_group_id'=&gt;16,'address1'=&gt;'Sutakol','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'711103','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Pappa Sales ','billing_name'=&gt;'Pappa Sales ','ledger_group_id'=&gt;16,'address1'=&gt;'Sutakol','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'711103','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C143">
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E143" t="s">
         <v>83</v>
       </c>
       <c r="F143" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G143" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H143" s="2">
         <v>20</v>
@@ -7421,30 +7419,30 @@
       </c>
       <c r="N143" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Ashok Majumder (A.K)billing_name'=&gt;'Ashok Majumder (A.K)','ledger_group_id'=&gt;16,'address1'=&gt;'Chanchol','mobile1'=&gt;'94340403339434040333','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'711111','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Ashok Majumder (A.K)','billing_name'=&gt;'Ashok Majumder (A.K)','ledger_group_id'=&gt;16,'address1'=&gt;'Chanchol','mobile1'=&gt;'9434040333','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'711111','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C144">
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E144" t="s">
         <v>96</v>
       </c>
       <c r="F144" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G144" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H144" s="2">
         <v>20</v>
@@ -7460,30 +7458,30 @@
       </c>
       <c r="N144" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Rita Kathalbilling_name'=&gt;'Rita Kathal','ledger_group_id'=&gt;16,'address1'=&gt;'Boro Kachari','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rita Kathal','billing_name'=&gt;'Rita Kathal','ledger_group_id'=&gt;16,'address1'=&gt;'Boro Kachari','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;34727,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C145">
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G145" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H145" s="2">
         <v>20</v>
@@ -7499,30 +7497,30 @@
       </c>
       <c r="N145" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Bablu Biswasbilling_name'=&gt;'Bablu Biswas','ledger_group_id'=&gt;16,'address1'=&gt;'Sciencity','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700046','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bablu Biswas','billing_name'=&gt;'Bablu Biswas','ledger_group_id'=&gt;16,'address1'=&gt;'Sciencity','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700046','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B146" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C146">
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E146" t="s">
         <v>83</v>
       </c>
       <c r="F146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G146" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H146" s="2">
         <v>20</v>
@@ -7538,30 +7536,30 @@
       </c>
       <c r="N146" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Ujjawlbilling_name'=&gt;'Ujjawl','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'87878787878787878787','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Ujjawl','billing_name'=&gt;'Ujjawl','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8787878787','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C147">
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E147" t="s">
         <v>97</v>
       </c>
       <c r="F147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H147" s="2">
         <v>20</v>
@@ -7577,30 +7575,30 @@
       </c>
       <c r="N147" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Mahadev Halderbilling_name'=&gt;'Mahadev Halder','ledger_group_id'=&gt;16,'address1'=&gt;'Murogacha','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Mahadev Halder','billing_name'=&gt;'Mahadev Halder','ledger_group_id'=&gt;16,'address1'=&gt;'Murogacha','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C148">
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G148" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H148" s="2">
         <v>20</v>
@@ -7616,30 +7614,30 @@
       </c>
       <c r="N148" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Sanju Kangsa Banikbilling_name'=&gt;'Sanju Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Silchar','mobile1'=&gt;'0848644853208486448532','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'788001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sanju Kangsa Banik','billing_name'=&gt;'Sanju Kangsa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Silchar','mobile1'=&gt;'08486448532','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'788001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C149">
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E149" t="s">
         <v>98</v>
       </c>
       <c r="F149" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G149" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H149" s="2">
         <v>20</v>
@@ -7655,30 +7653,30 @@
       </c>
       <c r="N149" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Borunbilling_name'=&gt;'Borun','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Borun','billing_name'=&gt;'Borun','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;11378,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C150">
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G150" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H150" s="2">
         <v>20</v>
@@ -7694,30 +7692,30 @@
       </c>
       <c r="N150" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Maa Moni Basanalyabilling_name'=&gt;'Maa Moni Basanalya','ledger_group_id'=&gt;16,'address1'=&gt;'Bojerhat','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Maa Moni Basanalya','billing_name'=&gt;'Maa Moni Basanalya','ledger_group_id'=&gt;16,'address1'=&gt;'Bojerhat','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;71874,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B151" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C151">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G151" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H151" s="2">
         <v>20</v>
@@ -7733,30 +7731,30 @@
       </c>
       <c r="N151" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Mahamaya Basanalayabilling_name'=&gt;'Mahamaya Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Katiahat','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743427','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Mahamaya Basanalaya','billing_name'=&gt;'Mahamaya Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Katiahat','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'743427','transaction_type_id'=&gt;1,'opening_balance'=&gt;96803,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C152">
         <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E152" t="s">
         <v>83</v>
       </c>
       <c r="F152" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G152" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H152" s="2">
         <v>20</v>
@@ -7772,30 +7770,30 @@
       </c>
       <c r="N152" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Fancy Kakabilling_name'=&gt;'Fancy Kaka','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Fancy Kaka','billing_name'=&gt;'Fancy Kaka','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B153" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C153">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E153" t="s">
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G153" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H153" s="2">
         <v>20</v>
@@ -7811,30 +7809,30 @@
       </c>
       <c r="N153" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Ajay Palibilling_name'=&gt;'Ajay Pali','ledger_group_id'=&gt;16,'address1'=&gt;'Paliganj','mobile1'=&gt;'97093443439709344343','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Ajay Pali','billing_name'=&gt;'Ajay Pali','ledger_group_id'=&gt;16,'address1'=&gt;'Paliganj','mobile1'=&gt;'9709344343','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;-5144,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C154">
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E154" t="s">
         <v>99</v>
       </c>
       <c r="F154" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G154" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H154" s="2">
         <v>20</v>
@@ -7850,30 +7848,30 @@
       </c>
       <c r="N154" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Nepal Ghoshbilling_name'=&gt;'Nepal Ghosh','ledger_group_id'=&gt;16,'address1'=&gt;'Gangarampur','mobile1'=&gt;'94343252569434325256','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'733124','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Nepal Ghosh','billing_name'=&gt;'Nepal Ghosh','ledger_group_id'=&gt;16,'address1'=&gt;'Gangarampur','mobile1'=&gt;'9434325256','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'733124','transaction_type_id'=&gt;1,'opening_balance'=&gt;179510,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C155">
         <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E155" t="s">
         <v>100</v>
       </c>
       <c r="F155" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G155" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H155" s="2">
         <v>20</v>
@@ -7889,30 +7887,30 @@
       </c>
       <c r="N155" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Gopinath Deyashibilling_name'=&gt;'Gopinath Deyashi','ledger_group_id'=&gt;16,'address1'=&gt;'Aamta','mobile1'=&gt;'97326123989732612398','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Gopinath Deyashi','billing_name'=&gt;'Gopinath Deyashi','ledger_group_id'=&gt;16,'address1'=&gt;'Aamta','mobile1'=&gt;'9732612398','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B156" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C156">
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E156" t="s">
         <v>101</v>
       </c>
       <c r="F156" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G156" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H156" s="2">
         <v>20</v>
@@ -7928,30 +7926,30 @@
       </c>
       <c r="N156" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Tinkori Dasbilling_name'=&gt;'Tinkori Das','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tinkori Das','billing_name'=&gt;'Tinkori Das','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C157">
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G157" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H157" s="2">
         <v>20</v>
@@ -7967,30 +7965,30 @@
       </c>
       <c r="N157" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Chitto Chakrabortybilling_name'=&gt;'Chitto Chakraborty','ledger_group_id'=&gt;16,'address1'=&gt;'Pyaradanga','mobile1'=&gt;'99988877719998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'521321','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Chitto Chakraborty','billing_name'=&gt;'Chitto Chakraborty','ledger_group_id'=&gt;16,'address1'=&gt;'Pyaradanga','mobile1'=&gt;'9998887771','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'521321','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C158">
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E158" t="s">
         <v>83</v>
       </c>
       <c r="F158" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G158" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H158" s="2">
         <v>20</v>
@@ -8006,30 +8004,30 @@
       </c>
       <c r="N158" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Rajib Kakubilling_name'=&gt;'Rajib Kaku','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'84201078418420107841','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rajib Kaku','billing_name'=&gt;'Rajib Kaku','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'8420107841','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;50284,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C159">
         <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E159" t="s">
         <v>102</v>
       </c>
       <c r="F159" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G159" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H159" s="2">
         <v>20</v>
@@ -8045,30 +8043,30 @@
       </c>
       <c r="N159" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'New Tara Maa Basanalayabilling_name'=&gt;'New Tara Maa Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Rahara Bajar','mobile1'=&gt;'90626986959062698695','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'New Tara Maa Basanalaya','billing_name'=&gt;'New Tara Maa Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Rahara Bajar','mobile1'=&gt;'9062698695','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B160" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C160">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E160" t="s">
         <v>103</v>
       </c>
       <c r="F160" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G160" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H160" s="2">
         <v>20</v>
@@ -8084,21 +8082,21 @@
       </c>
       <c r="N160" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Dey Basanalayabilling_name'=&gt;'Dey Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Kadai','mobile1'=&gt;'94751549689475154968','mobile2'=&gt;'9563264292','state_id'=&gt;20,'pin'=&gt;'742101','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Dey Basanalaya','billing_name'=&gt;'Dey Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Kadai','mobile1'=&gt;'9475154968','mobile2'=&gt;'9563264292','state_id'=&gt;20,'pin'=&gt;'742101','transaction_type_id'=&gt;1,'opening_balance'=&gt;42238,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B161" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C161">
         <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E161" t="s">
         <v>104</v>
@@ -8107,7 +8105,7 @@
         <v>105</v>
       </c>
       <c r="G161" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H161" s="2">
         <v>20</v>
@@ -8123,30 +8121,30 @@
       </c>
       <c r="N161" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Sapan (Tarakeshwar)billing_name'=&gt;'Sapan (Tarakeshwar)','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sapan (Tarakeshwar)','billing_name'=&gt;'Sapan (Tarakeshwar)','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B162" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C162">
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G162" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H162" s="2">
         <v>20</v>
@@ -8162,30 +8160,30 @@
       </c>
       <c r="N162" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Bimal Maitybilling_name'=&gt;'Bimal Maity','ledger_group_id'=&gt;16,'address1'=&gt;'Ganga Sagar','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bimal Maity','billing_name'=&gt;'Bimal Maity','ledger_group_id'=&gt;16,'address1'=&gt;'Ganga Sagar','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B163" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C163">
         <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G163" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H163" s="2">
         <v>20</v>
@@ -8201,30 +8199,30 @@
       </c>
       <c r="N163" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'B D Gourabilling_name'=&gt;'B D Goura','ledger_group_id'=&gt;16,'address1'=&gt;'Kjhkjh','mobile1'=&gt;'99327745859932774585','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'456123','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'B D Goura','billing_name'=&gt;'B D Goura','ledger_group_id'=&gt;16,'address1'=&gt;'Kjhkjh','mobile1'=&gt;'9932774585','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'456123','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B164" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C164">
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E164" t="s">
         <v>106</v>
       </c>
       <c r="F164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G164" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H164" s="2">
         <v>20</v>
@@ -8240,30 +8238,30 @@
       </c>
       <c r="N164" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Dulal Banikbilling_name'=&gt;'Dulal Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Gobardanga','mobile1'=&gt;'94345688119434568811','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Dulal Banik','billing_name'=&gt;'Dulal Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Gobardanga','mobile1'=&gt;'9434568811','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'743271','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B165" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C165">
         <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E165" t="s">
         <v>107</v>
       </c>
       <c r="F165" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G165" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H165" s="2">
         <v>20</v>
@@ -8279,7 +8277,7 @@
       </c>
       <c r="N165" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'L.K.Dbilling_name'=&gt;'L.K.D','ledger_group_id'=&gt;16,'address1'=&gt;'Nolhati','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'L.K.D','billing_name'=&gt;'L.K.D','ledger_group_id'=&gt;16,'address1'=&gt;'Nolhati','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8293,16 +8291,16 @@
         <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G166" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H166" s="2">
         <v>20</v>
@@ -8318,30 +8316,30 @@
       </c>
       <c r="N166" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Naba Kakubilling_name'=&gt;'Naba Kaku','ledger_group_id'=&gt;16,'address1'=&gt;'Arambagh','mobile1'=&gt;'97757135529775713552','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Naba Kaku','billing_name'=&gt;'Naba Kaku','ledger_group_id'=&gt;16,'address1'=&gt;'Arambagh','mobile1'=&gt;'9775713552','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B167" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C167">
         <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E167" t="s">
         <v>109</v>
       </c>
       <c r="F167" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G167" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H167" s="2">
         <v>20</v>
@@ -8357,30 +8355,30 @@
       </c>
       <c r="N167" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Bankim Kundubilling_name'=&gt;'Bankim Kundu','ledger_group_id'=&gt;16,'address1'=&gt;'Lokenath Basanalaya, Rajpur Bazar, Narendrapur','mobile1'=&gt;'94333666049433366604','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bankim Kundu','billing_name'=&gt;'Bankim Kundu','ledger_group_id'=&gt;16,'address1'=&gt;'Lokenath Basanalaya, Rajpur Bazar, Narendrapur','mobile1'=&gt;'9433366604','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B168" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C168">
         <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E168" t="s">
         <v>110</v>
       </c>
       <c r="F168" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G168" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H168" s="2">
         <v>20</v>
@@ -8396,30 +8394,30 @@
       </c>
       <c r="N168" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Bhagwan Dasbilling_name'=&gt;'Bhagwan Das','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'98753317349875331734','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bhagwan Das','billing_name'=&gt;'Bhagwan Das','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'9875331734','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;61091,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B169" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C169">
         <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E169" t="s">
         <v>111</v>
       </c>
       <c r="F169" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G169" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H169" s="2">
         <v>20</v>
@@ -8435,30 +8433,30 @@
       </c>
       <c r="N169" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Mahamaya Khagrabilling_name'=&gt;'Mahamaya Khagra','ledger_group_id'=&gt;16,'address1'=&gt;'Khagra','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Mahamaya Khagra','billing_name'=&gt;'Mahamaya Khagra','ledger_group_id'=&gt;16,'address1'=&gt;'Khagra','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C170">
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E170" t="s">
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G170" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H170" s="2">
         <v>20</v>
@@ -8474,30 +8472,30 @@
       </c>
       <c r="N170" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Bijubilling_name'=&gt;'Biju','ledger_group_id'=&gt;16,'address1'=&gt;'Bkp','mobile1'=&gt;'979564979979564979','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700121','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Biju','billing_name'=&gt;'Biju','ledger_group_id'=&gt;16,'address1'=&gt;'Bkp','mobile1'=&gt;'979564979','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700121','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C171">
         <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E171" t="s">
         <v>112</v>
       </c>
       <c r="F171" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G171" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H171" s="2">
         <v>20</v>
@@ -8513,30 +8511,30 @@
       </c>
       <c r="N171" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Maa Sona Basanalayabilling_name'=&gt;'Maa Sona Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Dubrajpur','mobile1'=&gt;'99329482669932948266','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Maa Sona Basanalaya','billing_name'=&gt;'Maa Sona Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Dubrajpur','mobile1'=&gt;'9932948266','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B172" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C172">
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E172" t="s">
         <v>113</v>
       </c>
       <c r="F172" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G172" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H172" s="2">
         <v>20</v>
@@ -8552,30 +8550,30 @@
       </c>
       <c r="N172" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Basanti Metal Storesbilling_name'=&gt;'Basanti Metal Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Basanti Metal Stores','billing_name'=&gt;'Basanti Metal Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B173" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C173">
         <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G173" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H173" s="2">
         <v>20</v>
@@ -8591,30 +8589,30 @@
       </c>
       <c r="N173" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Arifbilling_name'=&gt;'Arif','ledger_group_id'=&gt;16,'address1'=&gt;'Kasinagar','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Arif','billing_name'=&gt;'Arif','ledger_group_id'=&gt;16,'address1'=&gt;'Kasinagar','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B174" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C174">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G174" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H174" s="2">
         <v>20</v>
@@ -8630,30 +8628,30 @@
       </c>
       <c r="N174" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Anil Guptabilling_name'=&gt;'Anil Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Cossipore','mobile1'=&gt;'89613679328961367932','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Anil Gupta','billing_name'=&gt;'Anil Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Cossipore','mobile1'=&gt;'8961367932','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;20572,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B175" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C175">
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E175" t="s">
         <v>114</v>
       </c>
       <c r="F175" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G175" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H175" s="2">
         <v>20</v>
@@ -8669,30 +8667,30 @@
       </c>
       <c r="N175" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Rakesh Kr. Duttabilling_name'=&gt;'Rakesh Kr. Dutta','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rakesh Kr. Dutta','billing_name'=&gt;'Rakesh Kr. Dutta','ledger_group_id'=&gt;16,'address1'=&gt;'Habra','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'743263','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B176" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C176">
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G176" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H176" s="2">
         <v>20</v>
@@ -8708,30 +8706,30 @@
       </c>
       <c r="N176" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Nojrulbilling_name'=&gt;'Nojrul','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Nojrul','billing_name'=&gt;'Nojrul','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;6515,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B177" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C177">
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G177" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H177" s="2">
         <v>20</v>
@@ -8747,30 +8745,30 @@
       </c>
       <c r="N177" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Palash Paulbilling_name'=&gt;'Palash Paul','ledger_group_id'=&gt;16,'address1'=&gt;'Midha Martket Jagatpur','mobile1'=&gt;'98305468749830546874','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Palash Paul','billing_name'=&gt;'Palash Paul','ledger_group_id'=&gt;16,'address1'=&gt;'Midha Martket Jagatpur','mobile1'=&gt;'9830546874','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;37358,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C178">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E178" t="s">
         <v>115</v>
       </c>
       <c r="F178" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G178" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H178" s="2">
         <v>20</v>
@@ -8786,30 +8784,30 @@
       </c>
       <c r="N178" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Sanjay Deybilling_name'=&gt;'Sanjay Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Salkia','mobile1'=&gt;'70036606867003660686','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sanjay Dey','billing_name'=&gt;'Sanjay Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Salkia','mobile1'=&gt;'7003660686','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;50,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B179" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C179">
         <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E179" t="s">
         <v>116</v>
       </c>
       <c r="F179" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H179" s="2">
         <v>20</v>
@@ -8825,30 +8823,30 @@
       </c>
       <c r="N179" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Balaram Halderbilling_name'=&gt;'Balaram Halder','ledger_group_id'=&gt;16,'address1'=&gt;'Burra Bazar','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Balaram Halder','billing_name'=&gt;'Balaram Halder','ledger_group_id'=&gt;16,'address1'=&gt;'Burra Bazar','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B180" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C180">
         <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G180" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H180" s="2">
         <v>20</v>
@@ -8864,30 +8862,30 @@
       </c>
       <c r="N180" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Partho Sahabilling_name'=&gt;'Partho Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Rng','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Partho Saha','billing_name'=&gt;'Partho Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Rng','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B181" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C181">
         <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G181" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H181" s="2">
         <v>20</v>
@@ -8903,7 +8901,7 @@
       </c>
       <c r="N181" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'M K Pbilling_name'=&gt;'M K P','ledger_group_id'=&gt;16,'address1'=&gt;'Poakhia, Odisha','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'474747','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'M K P','billing_name'=&gt;'M K P','ledger_group_id'=&gt;16,'address1'=&gt;'Poakhia, Odisha','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'474747','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -8917,16 +8915,16 @@
         <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G182" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H182" s="2">
         <v>20</v>
@@ -8942,30 +8940,30 @@
       </c>
       <c r="N182" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Samir Sahabilling_name'=&gt;'Samir Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Samir Saha','billing_name'=&gt;'Samir Saha','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B183" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C183">
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G183" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H183" s="2">
         <v>20</v>
@@ -8981,30 +8979,30 @@
       </c>
       <c r="N183" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Nandy Brothersbilling_name'=&gt;'Nandy Brothers','ledger_group_id'=&gt;16,'address1'=&gt;'Beleghata','mobile1'=&gt;'94346143019434614301','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Nandy Brothers','billing_name'=&gt;'Nandy Brothers','ledger_group_id'=&gt;16,'address1'=&gt;'Beleghata','mobile1'=&gt;'9434614301','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;1791,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B184" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C184">
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E184" t="s">
         <v>118</v>
       </c>
       <c r="F184" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G184" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H184" s="2">
         <v>20</v>
@@ -9020,30 +9018,30 @@
       </c>
       <c r="N184" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Kaushik Dey (Poulomi)billing_name'=&gt;'Kaushik Dey (Poulomi)','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'98303210079830321007','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Kaushik Dey (Poulomi)','billing_name'=&gt;'Kaushik Dey (Poulomi)','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'9830321007','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;14592,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C185">
         <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E185" t="s">
         <v>119</v>
       </c>
       <c r="F185" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G185" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H185" s="2">
         <v>20</v>
@@ -9059,30 +9057,30 @@
       </c>
       <c r="N185" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Maa Manasha (Sanjay)billing_name'=&gt;'Maa Manasha (Sanjay)','ledger_group_id'=&gt;16,'address1'=&gt;'Dunlop','mobile1'=&gt;'91631639009163163900','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Maa Manasha (Sanjay)','billing_name'=&gt;'Maa Manasha (Sanjay)','ledger_group_id'=&gt;16,'address1'=&gt;'Dunlop','mobile1'=&gt;'9163163900','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;983,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B186" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C186">
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E186" t="s">
         <v>120</v>
       </c>
       <c r="F186" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G186" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H186" s="2">
         <v>20</v>
@@ -9098,30 +9096,30 @@
       </c>
       <c r="N186" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Naresh Guptabilling_name'=&gt;'Naresh Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Telinipara','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Naresh Gupta','billing_name'=&gt;'Naresh Gupta','ledger_group_id'=&gt;16,'address1'=&gt;'Telinipara','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;20000,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C187">
         <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G187" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H187" s="2">
         <v>20</v>
@@ -9137,30 +9135,30 @@
       </c>
       <c r="N187" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Tribhuban Poddarbilling_name'=&gt;'Tribhuban Poddar','ledger_group_id'=&gt;16,'address1'=&gt;'Singur','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tribhuban Poddar','billing_name'=&gt;'Tribhuban Poddar','ledger_group_id'=&gt;16,'address1'=&gt;'Singur','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C188">
         <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G188" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H188" s="2">
         <v>20</v>
@@ -9176,30 +9174,30 @@
       </c>
       <c r="N188" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Upoharbilling_name'=&gt;'Upohar','ledger_group_id'=&gt;16,'address1'=&gt;'Titagarh','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Upohar','billing_name'=&gt;'Upohar','ledger_group_id'=&gt;16,'address1'=&gt;'Titagarh','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B189" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C189">
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G189" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H189" s="2">
         <v>20</v>
@@ -9215,30 +9213,30 @@
       </c>
       <c r="N189" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Sharif Gajibilling_name'=&gt;'Sharif Gaji','ledger_group_id'=&gt;16,'address1'=&gt;'Kasinagar','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sharif Gaji','billing_name'=&gt;'Sharif Gaji','ledger_group_id'=&gt;16,'address1'=&gt;'Kasinagar','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B190" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C190">
         <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G190" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H190" s="2">
         <v>20</v>
@@ -9254,21 +9252,21 @@
       </c>
       <c r="N190" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Kundu Enterprisebilling_name'=&gt;'Kundu Enterprise','ledger_group_id'=&gt;16,'address1'=&gt;'Shibpur','mobile1'=&gt;'72787568927278756892','mobile2'=&gt;'7003864862','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Kundu Enterprise','billing_name'=&gt;'Kundu Enterprise','ledger_group_id'=&gt;16,'address1'=&gt;'Shibpur','mobile1'=&gt;'7278756892','mobile2'=&gt;'7003864862','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;39580,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B191" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C191">
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E191" t="s">
         <v>67</v>
@@ -9277,7 +9275,7 @@
         <v>121</v>
       </c>
       <c r="G191" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H191" s="2">
         <v>20</v>
@@ -9293,30 +9291,30 @@
       </c>
       <c r="N191" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Himadribilling_name'=&gt;'Himadri','ledger_group_id'=&gt;16,'address1'=&gt;'Chadni Chowk','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Himadri','billing_name'=&gt;'Himadri','ledger_group_id'=&gt;16,'address1'=&gt;'Chadni Chowk','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B192" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C192">
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G192" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H192" s="2">
         <v>20</v>
@@ -9332,30 +9330,30 @@
       </c>
       <c r="N192" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Rupa Steelbilling_name'=&gt;'Rupa Steel','ledger_group_id'=&gt;16,'address1'=&gt;'S N Banerjee Road','mobile1'=&gt;'98742139569874213956','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rupa Steel','billing_name'=&gt;'Rupa Steel','ledger_group_id'=&gt;16,'address1'=&gt;'S N Banerjee Road','mobile1'=&gt;'9874213956','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B193" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C193">
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E193" t="s">
         <v>122</v>
       </c>
       <c r="F193" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G193" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H193" s="2">
         <v>20</v>
@@ -9371,30 +9369,30 @@
       </c>
       <c r="N193" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Madhav (Kalighat)billing_name'=&gt;'Madhav (Kalighat)','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Madhav (Kalighat)','billing_name'=&gt;'Madhav (Kalighat)','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B194" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C194">
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G194" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H194" s="2">
         <v>20</v>
@@ -9410,30 +9408,30 @@
       </c>
       <c r="N194" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Podder Portsbilling_name'=&gt;'Podder Ports','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'97098968039709896803','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Podder Ports','billing_name'=&gt;'Podder Ports','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'9709896803','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B195" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C195">
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E195" t="s">
         <v>123</v>
       </c>
       <c r="F195" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G195" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H195" s="2">
         <v>20</v>
@@ -9449,30 +9447,30 @@
       </c>
       <c r="N195" t="str">
         <f t="shared" si="2"/>
-        <v>['ledger_name'=&gt;'Subinoyindrabilling_name'=&gt;'Subinoyindra','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'78903772257890377225','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Subinoyindra','billing_name'=&gt;'Subinoyindra','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'7890377225','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B196" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C196">
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E196" t="s">
         <v>124</v>
       </c>
       <c r="F196" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G196" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H196" s="2">
         <v>20</v>
@@ -9487,31 +9485,31 @@
         <v>0</v>
       </c>
       <c r="N196" t="str">
-        <f t="shared" ref="N196:N222" si="3">CONCATENATE($A$2,$A$3,$B$2,A197,$B$3,$B$2,B197,$C$2,$C$3,$D$2,C197,$E$2,$D$3,$B$2,D197,$C$2,$E$3,$B$2,E197,E197,$C$2,$F$3,$B$2,F197,$C$2,$H$3,$D$2,H197,$E$2,$I$3,$B$2,I197,$C$2,$K$3,$D$2,$K$4,$F$2)</f>
-        <v>['ledger_name'=&gt;'Dutta Varietty Storesbilling_name'=&gt;'Dutta Varietty Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <f t="shared" ref="N196:N222" si="3">CONCATENATE($A$2,$A$3,$B$2,A197,$B$3,$B$2,B197,$C$2,$C$3,$D$2,C197,$E$2,$D$3,$B$2,D197,$C$2,$E$3,$B$2,E197,$C$2,$F$3,$B$2,F197,$C$2,$H$3,$D$2,H197,$E$2,$I$3,$B$2,I197,$C$2,$K$3,$D$2,$K$4,$E$2,$L$3,$D$2,L197,",'customer_category_id'=&gt;2",$F$2)</f>
+        <v>['ledger_name'=&gt;'Dutta Varietty Stores','billing_name'=&gt;'Dutta Varietty Stores','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B197" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C197">
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G197" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H197" s="2">
         <v>20</v>
@@ -9527,30 +9525,30 @@
       </c>
       <c r="N197" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Shib Lokenath Sankha Bhanderbilling_name'=&gt;'Shib Lokenath Sankha Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat, Opp Thana','mobile1'=&gt;'83348002948334800294','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Shib Lokenath Sankha Bhander','billing_name'=&gt;'Shib Lokenath Sankha Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat, Opp Thana','mobile1'=&gt;'8334800294','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;10945,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B198" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C198">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E198" t="s">
         <v>125</v>
       </c>
       <c r="F198" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G198" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H198" s="2">
         <v>20</v>
@@ -9566,30 +9564,30 @@
       </c>
       <c r="N198" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Virender Shawbilling_name'=&gt;'Virender Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Ramesh Dutta Street','mobile1'=&gt;'78903703917890370391','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Virender Shaw','billing_name'=&gt;'Virender Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'Ramesh Dutta Street','mobile1'=&gt;'7890370391','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;9292,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B199" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C199">
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E199" t="s">
         <v>126</v>
       </c>
       <c r="F199" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G199" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H199" s="2">
         <v>20</v>
@@ -9605,30 +9603,30 @@
       </c>
       <c r="N199" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Sapan Kr Duttabilling_name'=&gt;'Sapan Kr Dutta','ledger_group_id'=&gt;16,'address1'=&gt;'Nolhati','mobile1'=&gt;'98001702169800170216','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sapan Kr Dutta','billing_name'=&gt;'Sapan Kr Dutta','ledger_group_id'=&gt;16,'address1'=&gt;'Nolhati','mobile1'=&gt;'9800170216','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B200" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C200">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E200" t="s">
         <v>62</v>
       </c>
       <c r="F200" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G200" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H200" s="2">
         <v>20</v>
@@ -9644,30 +9642,30 @@
       </c>
       <c r="N200" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Maa Dhirabati Basanalayabilling_name'=&gt;'Maa Dhirabati Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Khagra','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Maa Dhirabati Basanalaya','billing_name'=&gt;'Maa Dhirabati Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Khagra','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B201" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C201">
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G201" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H201" s="2">
         <v>20</v>
@@ -9683,30 +9681,30 @@
       </c>
       <c r="N201" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Dhananjoybilling_name'=&gt;'Dhananjoy','ledger_group_id'=&gt;16,'address1'=&gt;'Howrah','mobile1'=&gt;'89816863278981686327','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Dhananjoy','billing_name'=&gt;'Dhananjoy','ledger_group_id'=&gt;16,'address1'=&gt;'Howrah','mobile1'=&gt;'8981686327','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C202">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E202" t="s">
         <v>127</v>
       </c>
       <c r="F202" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G202" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H202" s="2">
         <v>20</v>
@@ -9722,21 +9720,21 @@
       </c>
       <c r="N202" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Mukesh Shawbilling_name'=&gt;'Mukesh Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'102/1 Glt Road, Baranagar','mobile1'=&gt;'89813284198981328419','mobile2'=&gt;'8981203865','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Mukesh Shaw','billing_name'=&gt;'Mukesh Shaw','ledger_group_id'=&gt;16,'address1'=&gt;'102/1 Glt Road, Baranagar','mobile1'=&gt;'8981328419','mobile2'=&gt;'8981203865','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;16595,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B203" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C203">
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E203" t="s">
         <v>128</v>
@@ -9745,7 +9743,7 @@
         <v>129</v>
       </c>
       <c r="G203" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H203" s="2">
         <v>20</v>
@@ -9761,30 +9759,30 @@
       </c>
       <c r="N203" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Joy Sharma billing_name'=&gt;'Joy Sharma ','ledger_group_id'=&gt;16,'address1'=&gt;'Kamarhati','mobile1'=&gt;'90073118139007311813','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Joy Sharma ','billing_name'=&gt;'Joy Sharma ','ledger_group_id'=&gt;16,'address1'=&gt;'Kamarhati','mobile1'=&gt;'9007311813','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B204" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C204">
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E204" t="s">
         <v>130</v>
       </c>
       <c r="F204" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G204" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H204" s="2">
         <v>20</v>
@@ -9800,30 +9798,30 @@
       </c>
       <c r="N204" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Tilotomma Varietybilling_name'=&gt;'Tilotomma Variety','ledger_group_id'=&gt;16,'address1'=&gt;'Chakdah','mobile1'=&gt;'62906764846290676484','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tilotomma Variety','billing_name'=&gt;'Tilotomma Variety','ledger_group_id'=&gt;16,'address1'=&gt;'Chakdah','mobile1'=&gt;'6290676484','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C205">
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E205" t="s">
         <v>131</v>
       </c>
       <c r="F205" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G205" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H205" s="2">
         <v>20</v>
@@ -9839,30 +9837,30 @@
       </c>
       <c r="N205" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Bhanu (Mithu Kaku)billing_name'=&gt;'Bhanu (Mithu Kaku)','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'98368673079836867307','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Bhanu (Mithu Kaku)','billing_name'=&gt;'Bhanu (Mithu Kaku)','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'9836867307','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;5240,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B206" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C206">
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E206" t="s">
         <v>132</v>
       </c>
       <c r="F206" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G206" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H206" s="2">
         <v>20</v>
@@ -9878,30 +9876,30 @@
       </c>
       <c r="N206" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Poshupoti Deybilling_name'=&gt;'Poshupoti Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Poshupoti Dey','billing_name'=&gt;'Poshupoti Dey','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B207" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C207">
         <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G207" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H207" s="2">
         <v>20</v>
@@ -9917,30 +9915,30 @@
       </c>
       <c r="N207" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Rama billing_name'=&gt;'Rama ','ledger_group_id'=&gt;16,'address1'=&gt;'Odisha','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rama ','billing_name'=&gt;'Rama ','ledger_group_id'=&gt;16,'address1'=&gt;'Odisha','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;140683,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B208" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C208">
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G208" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H208" s="2">
         <v>20</v>
@@ -9956,30 +9954,30 @@
       </c>
       <c r="N208" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Azijulbilling_name'=&gt;'Azijul','ledger_group_id'=&gt;16,'address1'=&gt;'Shyampur','mobile1'=&gt;'75849506477584950647','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Azijul','billing_name'=&gt;'Azijul','ledger_group_id'=&gt;16,'address1'=&gt;'Shyampur','mobile1'=&gt;'7584950647','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;5951,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B209" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C209">
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E209" t="s">
         <v>133</v>
       </c>
       <c r="F209" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G209" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H209" s="2">
         <v>20</v>
@@ -9995,30 +9993,30 @@
       </c>
       <c r="N209" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Tm Bisubilling_name'=&gt;'Tm Bisu','ledger_group_id'=&gt;16,'address1'=&gt;'Konnogor','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tm Bisu','billing_name'=&gt;'Tm Bisu','ledger_group_id'=&gt;16,'address1'=&gt;'Konnogor','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B210" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C210">
         <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G210" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H210" s="2">
         <v>20</v>
@@ -10034,30 +10032,30 @@
       </c>
       <c r="N210" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'N Mannabilling_name'=&gt;'N Manna','ledger_group_id'=&gt;16,'address1'=&gt;'Aamtala','mobile1'=&gt;'90737404839073740483','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'N Manna','billing_name'=&gt;'N Manna','ledger_group_id'=&gt;16,'address1'=&gt;'Aamtala','mobile1'=&gt;'9073740483','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;16623,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B211" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C211">
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E211" t="s">
         <v>134</v>
       </c>
       <c r="F211" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G211" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H211" s="2">
         <v>20</v>
@@ -10073,30 +10071,30 @@
       </c>
       <c r="N211" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Rohini Sankha Bhanderbilling_name'=&gt;'Rohini Sankha Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'88','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Rohini Sankha Bhander','billing_name'=&gt;'Rohini Sankha Bhander','ledger_group_id'=&gt;16,'address1'=&gt;'Kalighat','mobile1'=&gt;'8','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B212" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C212">
         <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G212" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H212" s="2">
         <v>20</v>
@@ -10112,30 +10110,30 @@
       </c>
       <c r="N212" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Subodh Ch. Roybilling_name'=&gt;'Subodh Ch. Roy','ledger_group_id'=&gt;16,'address1'=&gt;'Bedberia','mobile1'=&gt;'95641141279564114127','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Subodh Ch. Roy','billing_name'=&gt;'Subodh Ch. Roy','ledger_group_id'=&gt;16,'address1'=&gt;'Bedberia','mobile1'=&gt;'9564114127','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;7350,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B213" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C213">
         <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E213" t="s">
         <v>135</v>
       </c>
       <c r="F213" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G213" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H213" s="2">
         <v>20</v>
@@ -10151,30 +10149,30 @@
       </c>
       <c r="N213" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'B K Adhikarybilling_name'=&gt;'B K Adhikary','ledger_group_id'=&gt;16,'address1'=&gt;'Joynagar','mobile1'=&gt;'97325096689732509668','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'B K Adhikary','billing_name'=&gt;'B K Adhikary','ledger_group_id'=&gt;16,'address1'=&gt;'Joynagar','mobile1'=&gt;'9732509668','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;182154,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B214" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C214">
         <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E214" t="s">
         <v>136</v>
       </c>
       <c r="F214" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G214" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H214" s="2">
         <v>20</v>
@@ -10190,30 +10188,30 @@
       </c>
       <c r="N214" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'P K Roybilling_name'=&gt;'P K Roy','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'98748671449874867144','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'P K Roy','billing_name'=&gt;'P K Roy','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'9874867144','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;24091,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B215" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C215">
         <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E215" t="s">
         <v>137</v>
       </c>
       <c r="F215" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G215" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H215" s="2">
         <v>20</v>
@@ -10229,30 +10227,30 @@
       </c>
       <c r="N215" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Tapas Ch Dasbilling_name'=&gt;'Tapas Ch Das','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'86706274498670627449','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Tapas Ch Das','billing_name'=&gt;'Tapas Ch Das','ledger_group_id'=&gt;16,'address1'=&gt;'Kharagpur','mobile1'=&gt;'8670627449','mobile2'=&gt;'   ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B216" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C216">
         <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E216" t="s">
         <v>138</v>
       </c>
       <c r="F216" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G216" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H216" s="2">
         <v>20</v>
@@ -10268,21 +10266,21 @@
       </c>
       <c r="N216" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Mahaprabhu Basanalayabilling_name'=&gt;'Mahaprabhu Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Tardaha Bantala','mobile1'=&gt;'80012001698001200169','mobile2'=&gt;'9800345205','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Mahaprabhu Basanalaya','billing_name'=&gt;'Mahaprabhu Basanalaya','ledger_group_id'=&gt;16,'address1'=&gt;'Tardaha Bantala','mobile1'=&gt;'8001200169','mobile2'=&gt;'9800345205','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;27560,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B217" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C217">
         <v>16</v>
       </c>
       <c r="D217" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E217" t="s">
         <v>139</v>
@@ -10291,7 +10289,7 @@
         <v>140</v>
       </c>
       <c r="G217" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H217" s="2">
         <v>20</v>
@@ -10307,30 +10305,30 @@
       </c>
       <c r="N217" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Shree Metal Vijay Singhbilling_name'=&gt;'Shree Metal Vijay Singh','ledger_group_id'=&gt;16,'address1'=&gt;'Satyanarayan Market','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Shree Metal Vijay Singh','billing_name'=&gt;'Shree Metal Vijay Singh','ledger_group_id'=&gt;16,'address1'=&gt;'Satyanarayan Market','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B218" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C218">
         <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G218" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H218" s="2">
         <v>20</v>
@@ -10346,30 +10344,30 @@
       </c>
       <c r="N218" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Susanto Maitybilling_name'=&gt;'Susanto Maity','ledger_group_id'=&gt;16,'address1'=&gt;'Mecheda','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Susanto Maity','billing_name'=&gt;'Susanto Maity','ledger_group_id'=&gt;16,'address1'=&gt;'Mecheda','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;12837,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B219" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C219">
         <v>16</v>
       </c>
       <c r="D219" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G219" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H219" s="2">
         <v>20</v>
@@ -10385,30 +10383,30 @@
       </c>
       <c r="N219" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Harinathbilling_name'=&gt;'Harinath','ledger_group_id'=&gt;16,'address1'=&gt;'Sakherbajar','mobile1'=&gt;'80134105268013410526','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Harinath','billing_name'=&gt;'Harinath','ledger_group_id'=&gt;16,'address1'=&gt;'Sakherbajar','mobile1'=&gt;'8013410526','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;11928,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B220" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C220">
         <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E220" t="s">
         <v>141</v>
       </c>
       <c r="F220" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G220" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H220" s="2">
         <v>20</v>
@@ -10424,30 +10422,30 @@
       </c>
       <c r="N220" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Sanjay Kansa Banikbilling_name'=&gt;'Sanjay Kansa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Bally','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Sanjay Kansa Banik','billing_name'=&gt;'Sanjay Kansa Banik','ledger_group_id'=&gt;16,'address1'=&gt;'Bally','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;0,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B221" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C221">
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G221" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H221" s="2">
         <v>20</v>
@@ -10463,30 +10461,30 @@
       </c>
       <c r="N221" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'Dipak Mannabilling_name'=&gt;'Dipak Manna','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'88','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'Dipak Manna','billing_name'=&gt;'Dipak Manna','ledger_group_id'=&gt;16,'address1'=&gt;'Kolkata','mobile1'=&gt;'8','mobile2'=&gt;'  ','state_id'=&gt;20,'pin'=&gt;'700001','transaction_type_id'=&gt;1,'opening_balance'=&gt;37953,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B222" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C222">
         <v>16</v>
       </c>
       <c r="D222" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G222" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H222" s="2">
         <v>20</v>
@@ -10502,7 +10500,7 @@
       </c>
       <c r="N222" t="str">
         <f t="shared" si="3"/>
-        <v>['ledger_name'=&gt;'billing_name'=&gt;'','ledger_group_id'=&gt;,'address1'=&gt;'','mobile1'=&gt;'','mobile2'=&gt;'','state_id'=&gt;,'pin'=&gt;'','transaction_type_id'=&gt;1],</v>
+        <v>['ledger_name'=&gt;'','billing_name'=&gt;'','ledger_group_id'=&gt;,'address1'=&gt;'','mobile1'=&gt;'','mobile2'=&gt;'','state_id'=&gt;,'pin'=&gt;'','transaction_type_id'=&gt;1,'opening_balance'=&gt;,'customer_category_id'=&gt;2],</v>
       </c>
     </row>
   </sheetData>
